--- a/Assets/StreamingAssets/DxRData/ObviousData.xlsx
+++ b/Assets/StreamingAssets/DxRData/ObviousData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mswhi\ThreeDPerceptionStudy\Assets\StreamingAssets\DxRData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThreeDPerceptionStudy\Assets\StreamingAssets\DxRData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFA0356-D391-48C5-830B-B409CC0BA503}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8CE7F1-0238-4288-B39F-D542D1C06BCB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18540" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ObviousData" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,12 +29,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
   <si>
     <t>HeatLongPlusLat</t>
   </si>
@@ -72,6 +67,12 @@
   </si>
   <si>
     <t>OrientationTrend</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -915,59 +916,59 @@
   <dimension ref="A1:O442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:O442"/>
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1012,10 +1013,10 @@
       </c>
       <c r="O2">
         <f ca="1">10+70*RAND()</f>
-        <v>30.445597813592681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+        <v>73.57073991634401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1060,10 +1061,10 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O66" ca="1" si="0">10+70*RAND()</f>
-        <v>28.513707691656581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+        <v>15.361200208673811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1108,10 +1109,10 @@
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>62.515631489061811</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+        <v>37.668840769625916</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1156,10 +1157,10 @@
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>33.986063912272307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+        <v>78.302159860328501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1204,10 +1205,10 @@
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>60.852293301836838</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40.051790326165033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1252,10 +1253,10 @@
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>74.084476042932138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+        <v>48.946013895218215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1300,10 +1301,10 @@
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>79.059578903855652</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+        <v>65.407783289030135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1348,10 +1349,10 @@
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>36.453742368241649</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+        <v>33.621819133574121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1396,10 +1397,10 @@
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>69.719956019962538</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+        <v>50.154006537513695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1444,10 +1445,10 @@
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
-        <v>45.076830782565736</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+        <v>28.25475554954431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1492,10 +1493,10 @@
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>63.063791798415323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+        <v>54.533098461318403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1540,10 +1541,10 @@
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>20.994054001767708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+        <v>35.016381491762026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1588,10 +1589,10 @@
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="0"/>
-        <v>75.551884685086335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+        <v>20.611578633014215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1636,10 +1637,10 @@
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="0"/>
-        <v>16.202243320357503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+        <v>18.4490888229451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1684,10 +1685,10 @@
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="0"/>
-        <v>24.773028449069439</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+        <v>62.363610901816024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1732,10 +1733,10 @@
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="0"/>
-        <v>38.609934953858229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+        <v>73.344699525153743</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1780,10 +1781,10 @@
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="0"/>
-        <v>39.316243358897317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+        <v>30.896698362500313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1828,10 +1829,10 @@
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="0"/>
-        <v>35.540139213115282</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+        <v>24.101658974034439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1876,10 +1877,10 @@
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="0"/>
-        <v>34.790353835763341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+        <v>71.752832833524025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1924,10 +1925,10 @@
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="0"/>
-        <v>77.352069149774735</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
+        <v>75.804593058002695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1972,10 +1973,10 @@
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="0"/>
-        <v>63.541509353525775</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+        <v>52.360486149154582</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2020,10 +2021,10 @@
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="0"/>
-        <v>10.126966206204067</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
+        <v>72.12458967535153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2068,10 +2069,10 @@
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="0"/>
-        <v>46.68369992473832</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+        <v>15.098057393771089</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2116,10 +2117,10 @@
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="0"/>
-        <v>42.773457568662408</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
+        <v>30.506569867772946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2164,10 +2165,10 @@
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="0"/>
-        <v>50.061754707404781</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+        <v>18.536946912759561</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2212,10 +2213,10 @@
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="0"/>
-        <v>43.568934153363038</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
+        <v>68.016976006853355</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>5</v>
       </c>
@@ -2260,10 +2261,10 @@
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="0"/>
-        <v>14.004170947957164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
+        <v>27.281070730186208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>6</v>
       </c>
@@ -2308,10 +2309,10 @@
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="0"/>
-        <v>78.050810408342301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
+        <v>38.493987930740616</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>7</v>
       </c>
@@ -2356,10 +2357,10 @@
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="0"/>
-        <v>19.724742364870632</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
+        <v>54.890350011248344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>8</v>
       </c>
@@ -2404,10 +2405,10 @@
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="0"/>
-        <v>34.356744255792321</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
+        <v>48.665125167051059</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>9</v>
       </c>
@@ -2452,10 +2453,10 @@
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="0"/>
-        <v>27.161353905095957</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
+        <v>50.537780911443463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>10</v>
       </c>
@@ -2500,10 +2501,10 @@
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="0"/>
-        <v>47.535689742737326</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+        <v>30.98461122484494</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>11</v>
       </c>
@@ -2548,10 +2549,10 @@
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="0"/>
-        <v>63.588082859477637</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.45">
+        <v>19.152192836801312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>12</v>
       </c>
@@ -2596,10 +2597,10 @@
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="0"/>
-        <v>19.856817465410636</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.45">
+        <v>73.241784347938648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>13</v>
       </c>
@@ -2644,10 +2645,10 @@
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="0"/>
-        <v>68.441489873900707</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
+        <v>51.306549499820854</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>14</v>
       </c>
@@ -2692,10 +2693,10 @@
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="0"/>
-        <v>67.33568946985956</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
+        <v>45.022775649981192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>15</v>
       </c>
@@ -2740,10 +2741,10 @@
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="0"/>
-        <v>34.749870081620173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
+        <v>58.1183117150172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>16</v>
       </c>
@@ -2788,10 +2789,10 @@
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="0"/>
-        <v>30.602495000149133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
+        <v>30.86652157278343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>17</v>
       </c>
@@ -2836,10 +2837,10 @@
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="0"/>
-        <v>12.923907035106273</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+        <v>72.420240766569151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>18</v>
       </c>
@@ -2884,10 +2885,10 @@
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="0"/>
-        <v>56.846951486826178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
+        <v>49.920847461999365</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>19</v>
       </c>
@@ -2932,10 +2933,10 @@
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="0"/>
-        <v>79.46502662686396</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
+        <v>42.61483159219258</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>20</v>
       </c>
@@ -2980,10 +2981,10 @@
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="0"/>
-        <v>44.910684499654757</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+        <v>39.973167784941438</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3028,10 +3029,10 @@
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="0"/>
-        <v>65.770851436601305</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
+        <v>79.652391823826633</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3076,10 +3077,10 @@
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="0"/>
-        <v>22.869005758136769</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
+        <v>44.459088613965449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2</v>
       </c>
@@ -3124,10 +3125,10 @@
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="0"/>
-        <v>50.978966832867201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
+        <v>27.221530213443156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>3</v>
       </c>
@@ -3172,10 +3173,10 @@
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="0"/>
-        <v>13.059180481540295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
+        <v>59.939286582202435</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>4</v>
       </c>
@@ -3220,10 +3221,10 @@
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="0"/>
-        <v>53.778425568158909</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+        <v>36.792005220520878</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>5</v>
       </c>
@@ -3268,10 +3269,10 @@
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="0"/>
-        <v>25.040865580115195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+        <v>30.111673158678371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>6</v>
       </c>
@@ -3316,10 +3317,10 @@
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="0"/>
-        <v>11.725499740839073</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+        <v>63.948262069770422</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>7</v>
       </c>
@@ -3364,10 +3365,10 @@
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="0"/>
-        <v>74.976346195698341</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+        <v>31.310458699788558</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>8</v>
       </c>
@@ -3412,10 +3413,10 @@
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="0"/>
-        <v>58.396373494929065</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+        <v>73.224044120567953</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>9</v>
       </c>
@@ -3460,10 +3461,10 @@
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="0"/>
-        <v>11.271540730528333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+        <v>10.199339961318096</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>10</v>
       </c>
@@ -3508,10 +3509,10 @@
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="0"/>
-        <v>41.19774613985556</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+        <v>67.284247216047845</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>11</v>
       </c>
@@ -3556,10 +3557,10 @@
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="0"/>
-        <v>71.427811455029698</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+        <v>48.554673617629156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>12</v>
       </c>
@@ -3604,10 +3605,10 @@
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="0"/>
-        <v>73.747944595791154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.45">
+        <v>54.387550527113845</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>13</v>
       </c>
@@ -3652,10 +3653,10 @@
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="0"/>
-        <v>73.547524284123909</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.45">
+        <v>19.325335424341038</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>14</v>
       </c>
@@ -3700,10 +3701,10 @@
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="0"/>
-        <v>19.369639230227602</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.45">
+        <v>24.200060978667405</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>15</v>
       </c>
@@ -3748,10 +3749,10 @@
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="0"/>
-        <v>70.098053369584477</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40.381179455926556</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>16</v>
       </c>
@@ -3796,10 +3797,10 @@
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="0"/>
-        <v>51.803079738134315</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+        <v>78.203248576857519</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>17</v>
       </c>
@@ -3844,10 +3845,10 @@
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="0"/>
-        <v>33.086537764292629</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+        <v>27.098779253675399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>18</v>
       </c>
@@ -3892,10 +3893,10 @@
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="0"/>
-        <v>79.996064643864244</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.45">
+        <v>37.464005007774524</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>19</v>
       </c>
@@ -3940,10 +3941,10 @@
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="0"/>
-        <v>47.713910846459271</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.45">
+        <v>56.857000747558473</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>20</v>
       </c>
@@ -3988,10 +3989,10 @@
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="0"/>
-        <v>53.758067133152252</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
+        <v>65.325844026412881</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0</v>
       </c>
@@ -4036,10 +4037,10 @@
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="0"/>
-        <v>67.0649710040841</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
+        <v>66.190505244409323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>1</v>
       </c>
@@ -4084,10 +4085,10 @@
       </c>
       <c r="O66">
         <f t="shared" ca="1" si="0"/>
-        <v>12.134178203386041</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
+        <v>22.503753907293763</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2</v>
       </c>
@@ -4132,10 +4133,10 @@
       </c>
       <c r="O67">
         <f t="shared" ref="O67:O130" ca="1" si="1">10+70*RAND()</f>
-        <v>31.152884548510848</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
+        <v>75.818726641910885</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>3</v>
       </c>
@@ -4180,10 +4181,10 @@
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="1"/>
-        <v>62.705235968645887</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
+        <v>10.666106027233234</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>4</v>
       </c>
@@ -4228,10 +4229,10 @@
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="1"/>
-        <v>15.527735626517375</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
+        <v>50.931186884787756</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>5</v>
       </c>
@@ -4276,10 +4277,10 @@
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="1"/>
-        <v>76.447645530443069</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
+        <v>58.095279394278009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>6</v>
       </c>
@@ -4324,10 +4325,10 @@
       </c>
       <c r="O71">
         <f t="shared" ca="1" si="1"/>
-        <v>70.598003301083224</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
+        <v>17.37760820400792</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>7</v>
       </c>
@@ -4372,10 +4373,10 @@
       </c>
       <c r="O72">
         <f t="shared" ca="1" si="1"/>
-        <v>28.843535770923779</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
+        <v>38.305411183515886</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>8</v>
       </c>
@@ -4420,10 +4421,10 @@
       </c>
       <c r="O73">
         <f t="shared" ca="1" si="1"/>
-        <v>13.134131731699371</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
+        <v>71.042819816432711</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>9</v>
       </c>
@@ -4468,10 +4469,10 @@
       </c>
       <c r="O74">
         <f t="shared" ca="1" si="1"/>
-        <v>77.624358493820992</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
+        <v>37.391515742341227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>10</v>
       </c>
@@ -4516,10 +4517,10 @@
       </c>
       <c r="O75">
         <f t="shared" ca="1" si="1"/>
-        <v>38.716255475803635</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
+        <v>67.085562320908451</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>11</v>
       </c>
@@ -4564,10 +4565,10 @@
       </c>
       <c r="O76">
         <f t="shared" ca="1" si="1"/>
-        <v>64.069459734168561</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
+        <v>59.429528360421337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>12</v>
       </c>
@@ -4612,10 +4613,10 @@
       </c>
       <c r="O77">
         <f t="shared" ca="1" si="1"/>
-        <v>12.687352638000554</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
+        <v>11.733007606594356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>13</v>
       </c>
@@ -4660,10 +4661,10 @@
       </c>
       <c r="O78">
         <f t="shared" ca="1" si="1"/>
-        <v>61.231849184716708</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
+        <v>70.457663321026132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>14</v>
       </c>
@@ -4708,10 +4709,10 @@
       </c>
       <c r="O79">
         <f t="shared" ca="1" si="1"/>
-        <v>56.458961519306975</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
+        <v>43.306984772940552</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>15</v>
       </c>
@@ -4756,10 +4757,10 @@
       </c>
       <c r="O80">
         <f t="shared" ca="1" si="1"/>
-        <v>71.80669430446622</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.45">
+        <v>73.796114505825599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>16</v>
       </c>
@@ -4804,10 +4805,10 @@
       </c>
       <c r="O81">
         <f t="shared" ca="1" si="1"/>
-        <v>34.575460212526387</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.45">
+        <v>52.422988171605084</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>17</v>
       </c>
@@ -4852,10 +4853,10 @@
       </c>
       <c r="O82">
         <f t="shared" ca="1" si="1"/>
-        <v>52.171164503070059</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.45">
+        <v>42.999934033276396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>18</v>
       </c>
@@ -4900,10 +4901,10 @@
       </c>
       <c r="O83">
         <f t="shared" ca="1" si="1"/>
-        <v>52.971438517066971</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.45">
+        <v>18.339917588339279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>19</v>
       </c>
@@ -4948,10 +4949,10 @@
       </c>
       <c r="O84">
         <f t="shared" ca="1" si="1"/>
-        <v>53.790414450423157</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.45">
+        <v>37.954511236854607</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>20</v>
       </c>
@@ -4996,10 +4997,10 @@
       </c>
       <c r="O85">
         <f t="shared" ca="1" si="1"/>
-        <v>65.862960336148035</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.45">
+        <v>18.522820488203703</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0</v>
       </c>
@@ -5044,10 +5045,10 @@
       </c>
       <c r="O86">
         <f t="shared" ca="1" si="1"/>
-        <v>51.487040664696615</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.45">
+        <v>51.215934023186549</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>1</v>
       </c>
@@ -5092,10 +5093,10 @@
       </c>
       <c r="O87">
         <f t="shared" ca="1" si="1"/>
-        <v>52.791812321680219</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.45">
+        <v>32.489745877881461</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2</v>
       </c>
@@ -5140,10 +5141,10 @@
       </c>
       <c r="O88">
         <f t="shared" ca="1" si="1"/>
-        <v>18.795624903568076</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.45">
+        <v>24.045839602522818</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>3</v>
       </c>
@@ -5188,10 +5189,10 @@
       </c>
       <c r="O89">
         <f t="shared" ca="1" si="1"/>
-        <v>79.02564555110672</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.45">
+        <v>36.960672885008179</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>4</v>
       </c>
@@ -5236,10 +5237,10 @@
       </c>
       <c r="O90">
         <f t="shared" ca="1" si="1"/>
-        <v>33.29938561913994</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.45">
+        <v>12.947321882980203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>5</v>
       </c>
@@ -5284,10 +5285,10 @@
       </c>
       <c r="O91">
         <f t="shared" ca="1" si="1"/>
-        <v>10.704377529933094</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.45">
+        <v>75.449886187203106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>6</v>
       </c>
@@ -5332,10 +5333,10 @@
       </c>
       <c r="O92">
         <f t="shared" ca="1" si="1"/>
-        <v>79.848687832106947</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.45">
+        <v>53.190408300337609</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>7</v>
       </c>
@@ -5380,10 +5381,10 @@
       </c>
       <c r="O93">
         <f t="shared" ca="1" si="1"/>
-        <v>60.68208606958251</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.45">
+        <v>32.269324892624653</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>8</v>
       </c>
@@ -5428,10 +5429,10 @@
       </c>
       <c r="O94">
         <f t="shared" ca="1" si="1"/>
-        <v>16.541720547516185</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.45">
+        <v>69.266606349628603</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>9</v>
       </c>
@@ -5476,10 +5477,10 @@
       </c>
       <c r="O95">
         <f t="shared" ca="1" si="1"/>
-        <v>52.126217632861639</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.45">
+        <v>74.58726543967947</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>10</v>
       </c>
@@ -5524,10 +5525,10 @@
       </c>
       <c r="O96">
         <f t="shared" ca="1" si="1"/>
-        <v>72.413774326028488</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.45">
+        <v>53.07714027163189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>11</v>
       </c>
@@ -5572,10 +5573,10 @@
       </c>
       <c r="O97">
         <f t="shared" ca="1" si="1"/>
-        <v>70.100222769944452</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.45">
+        <v>46.792964381595787</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>12</v>
       </c>
@@ -5620,10 +5621,10 @@
       </c>
       <c r="O98">
         <f t="shared" ca="1" si="1"/>
-        <v>18.792590370853546</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.45">
+        <v>35.660819747465268</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>13</v>
       </c>
@@ -5668,10 +5669,10 @@
       </c>
       <c r="O99">
         <f t="shared" ca="1" si="1"/>
-        <v>16.677116866222214</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.45">
+        <v>31.431244090056616</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>14</v>
       </c>
@@ -5716,10 +5717,10 @@
       </c>
       <c r="O100">
         <f t="shared" ca="1" si="1"/>
-        <v>15.840564310837902</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.45">
+        <v>45.376937748059994</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>15</v>
       </c>
@@ -5764,10 +5765,10 @@
       </c>
       <c r="O101">
         <f t="shared" ca="1" si="1"/>
-        <v>40.220848510570065</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.45">
+        <v>29.747323775283412</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>16</v>
       </c>
@@ -5812,10 +5813,10 @@
       </c>
       <c r="O102">
         <f t="shared" ca="1" si="1"/>
-        <v>10.563952764008132</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.45">
+        <v>60.345856450713171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>17</v>
       </c>
@@ -5860,10 +5861,10 @@
       </c>
       <c r="O103">
         <f t="shared" ca="1" si="1"/>
-        <v>54.633808982791727</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.45">
+        <v>65.422871093049395</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>18</v>
       </c>
@@ -5908,10 +5909,10 @@
       </c>
       <c r="O104">
         <f t="shared" ca="1" si="1"/>
-        <v>26.930802727809493</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.45">
+        <v>79.198015452208551</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>19</v>
       </c>
@@ -5956,10 +5957,10 @@
       </c>
       <c r="O105">
         <f t="shared" ca="1" si="1"/>
-        <v>33.247925284545865</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.45">
+        <v>11.466973609102387</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>20</v>
       </c>
@@ -6004,10 +6005,10 @@
       </c>
       <c r="O106">
         <f t="shared" ca="1" si="1"/>
-        <v>10.884205553526655</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.45">
+        <v>54.805062013923106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0</v>
       </c>
@@ -6052,10 +6053,10 @@
       </c>
       <c r="O107">
         <f t="shared" ca="1" si="1"/>
-        <v>73.280836910351567</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.45">
+        <v>63.282854422279414</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>1</v>
       </c>
@@ -6100,10 +6101,10 @@
       </c>
       <c r="O108">
         <f t="shared" ca="1" si="1"/>
-        <v>36.880515956563791</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.45">
+        <v>26.126688451531134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>2</v>
       </c>
@@ -6148,10 +6149,10 @@
       </c>
       <c r="O109">
         <f t="shared" ca="1" si="1"/>
-        <v>75.891537512496726</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.45">
+        <v>24.307087770020729</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>3</v>
       </c>
@@ -6196,10 +6197,10 @@
       </c>
       <c r="O110">
         <f t="shared" ca="1" si="1"/>
-        <v>26.835215612848401</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.45">
+        <v>20.32762334060369</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>4</v>
       </c>
@@ -6244,10 +6245,10 @@
       </c>
       <c r="O111">
         <f t="shared" ca="1" si="1"/>
-        <v>50.75743840425018</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.45">
+        <v>51.811186925243675</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>5</v>
       </c>
@@ -6292,10 +6293,10 @@
       </c>
       <c r="O112">
         <f t="shared" ca="1" si="1"/>
-        <v>24.890514220645208</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.45">
+        <v>54.233993022639815</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>6</v>
       </c>
@@ -6340,10 +6341,10 @@
       </c>
       <c r="O113">
         <f t="shared" ca="1" si="1"/>
-        <v>31.20153566639835</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.45">
+        <v>58.21785042337595</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>7</v>
       </c>
@@ -6388,10 +6389,10 @@
       </c>
       <c r="O114">
         <f t="shared" ca="1" si="1"/>
-        <v>59.932738180169785</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.45">
+        <v>42.082864247598479</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>8</v>
       </c>
@@ -6436,10 +6437,10 @@
       </c>
       <c r="O115">
         <f t="shared" ca="1" si="1"/>
-        <v>59.919350179188143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.45">
+        <v>64.484633520633921</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>9</v>
       </c>
@@ -6484,10 +6485,10 @@
       </c>
       <c r="O116">
         <f t="shared" ca="1" si="1"/>
-        <v>53.329551984224423</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.45">
+        <v>68.510055920385327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>10</v>
       </c>
@@ -6532,10 +6533,10 @@
       </c>
       <c r="O117">
         <f t="shared" ca="1" si="1"/>
-        <v>67.116051561205197</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.45">
+        <v>59.024127384970015</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>11</v>
       </c>
@@ -6580,10 +6581,10 @@
       </c>
       <c r="O118">
         <f t="shared" ca="1" si="1"/>
-        <v>17.063765757533687</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.45">
+        <v>66.914123988609475</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>12</v>
       </c>
@@ -6628,10 +6629,10 @@
       </c>
       <c r="O119">
         <f t="shared" ca="1" si="1"/>
-        <v>46.703268508070138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.45">
+        <v>73.774824982480538</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>13</v>
       </c>
@@ -6676,10 +6677,10 @@
       </c>
       <c r="O120">
         <f t="shared" ca="1" si="1"/>
-        <v>40.349394739668504</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.45">
+        <v>71.220112879505905</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>14</v>
       </c>
@@ -6724,10 +6725,10 @@
       </c>
       <c r="O121">
         <f t="shared" ca="1" si="1"/>
-        <v>11.356490504211646</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.45">
+        <v>44.351659485813215</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>15</v>
       </c>
@@ -6772,10 +6773,10 @@
       </c>
       <c r="O122">
         <f t="shared" ca="1" si="1"/>
-        <v>75.343563480608253</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.45">
+        <v>31.144625117325131</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>16</v>
       </c>
@@ -6820,10 +6821,10 @@
       </c>
       <c r="O123">
         <f t="shared" ca="1" si="1"/>
-        <v>53.535550825433177</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.45">
+        <v>16.750774273868242</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>17</v>
       </c>
@@ -6868,10 +6869,10 @@
       </c>
       <c r="O124">
         <f t="shared" ca="1" si="1"/>
-        <v>22.280460128252024</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.45">
+        <v>57.70267554812478</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>18</v>
       </c>
@@ -6916,10 +6917,10 @@
       </c>
       <c r="O125">
         <f t="shared" ca="1" si="1"/>
-        <v>58.390848228157445</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.45">
+        <v>68.778161022354709</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>19</v>
       </c>
@@ -6964,10 +6965,10 @@
       </c>
       <c r="O126">
         <f t="shared" ca="1" si="1"/>
-        <v>20.263803069423439</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.45">
+        <v>22.37076160658836</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>20</v>
       </c>
@@ -7012,10 +7013,10 @@
       </c>
       <c r="O127">
         <f t="shared" ca="1" si="1"/>
-        <v>21.90449773780281</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.45">
+        <v>22.956640156220875</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0</v>
       </c>
@@ -7060,10 +7061,10 @@
       </c>
       <c r="O128">
         <f t="shared" ca="1" si="1"/>
-        <v>22.91285304414766</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.45">
+        <v>70.01003557346921</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>1</v>
       </c>
@@ -7108,10 +7109,10 @@
       </c>
       <c r="O129">
         <f t="shared" ca="1" si="1"/>
-        <v>46.740539181811045</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.45">
+        <v>30.634349735822713</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>2</v>
       </c>
@@ -7156,10 +7157,10 @@
       </c>
       <c r="O130">
         <f t="shared" ca="1" si="1"/>
-        <v>52.780219768098682</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.45">
+        <v>73.732312375409265</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>3</v>
       </c>
@@ -7204,10 +7205,10 @@
       </c>
       <c r="O131">
         <f t="shared" ref="O131:O194" ca="1" si="2">10+70*RAND()</f>
-        <v>23.279522496261599</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.45">
+        <v>51.245401385196779</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>4</v>
       </c>
@@ -7252,10 +7253,10 @@
       </c>
       <c r="O132">
         <f t="shared" ca="1" si="2"/>
-        <v>63.631603680159117</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.45">
+        <v>71.883243708811179</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>5</v>
       </c>
@@ -7300,10 +7301,10 @@
       </c>
       <c r="O133">
         <f t="shared" ca="1" si="2"/>
-        <v>49.476797570997228</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.45">
+        <v>18.110024009422936</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>6</v>
       </c>
@@ -7348,10 +7349,10 @@
       </c>
       <c r="O134">
         <f t="shared" ca="1" si="2"/>
-        <v>69.227334674343481</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.45">
+        <v>18.843346623800215</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>7</v>
       </c>
@@ -7396,10 +7397,10 @@
       </c>
       <c r="O135">
         <f t="shared" ca="1" si="2"/>
-        <v>25.225872247282933</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.45">
+        <v>19.737672140613853</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>8</v>
       </c>
@@ -7444,10 +7445,10 @@
       </c>
       <c r="O136">
         <f t="shared" ca="1" si="2"/>
-        <v>63.160729701380035</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.45">
+        <v>69.302265591021097</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>9</v>
       </c>
@@ -7492,10 +7493,10 @@
       </c>
       <c r="O137">
         <f t="shared" ca="1" si="2"/>
-        <v>43.073929499009033</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.45">
+        <v>48.002736038217684</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>10</v>
       </c>
@@ -7540,10 +7541,10 @@
       </c>
       <c r="O138">
         <f t="shared" ca="1" si="2"/>
-        <v>63.773033585781398</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.45">
+        <v>55.424538645116783</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>11</v>
       </c>
@@ -7588,10 +7589,10 @@
       </c>
       <c r="O139">
         <f t="shared" ca="1" si="2"/>
-        <v>43.185176714529071</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.45">
+        <v>74.554707235368298</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>12</v>
       </c>
@@ -7636,10 +7637,10 @@
       </c>
       <c r="O140">
         <f t="shared" ca="1" si="2"/>
-        <v>23.383387562797061</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.45">
+        <v>36.358193674319317</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>13</v>
       </c>
@@ -7684,10 +7685,10 @@
       </c>
       <c r="O141">
         <f t="shared" ca="1" si="2"/>
-        <v>47.850434311403312</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
+        <v>22.884326221617656</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>14</v>
       </c>
@@ -7732,10 +7733,10 @@
       </c>
       <c r="O142">
         <f t="shared" ca="1" si="2"/>
-        <v>61.116215284485705</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
+        <v>61.278558878688543</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>15</v>
       </c>
@@ -7780,10 +7781,10 @@
       </c>
       <c r="O143">
         <f t="shared" ca="1" si="2"/>
-        <v>34.78135547042362</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+        <v>28.485253716026318</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>16</v>
       </c>
@@ -7828,10 +7829,10 @@
       </c>
       <c r="O144">
         <f t="shared" ca="1" si="2"/>
-        <v>13.815509765466604</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
+        <v>25.200745814798651</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>17</v>
       </c>
@@ -7876,10 +7877,10 @@
       </c>
       <c r="O145">
         <f t="shared" ca="1" si="2"/>
-        <v>77.756056570848955</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
+        <v>16.744577401916189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>18</v>
       </c>
@@ -7924,10 +7925,10 @@
       </c>
       <c r="O146">
         <f t="shared" ca="1" si="2"/>
-        <v>76.872174683886271</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
+        <v>35.933364560018084</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>19</v>
       </c>
@@ -7972,10 +7973,10 @@
       </c>
       <c r="O147">
         <f t="shared" ca="1" si="2"/>
-        <v>79.952011540415398</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
+        <v>77.181100051112281</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>20</v>
       </c>
@@ -8020,10 +8021,10 @@
       </c>
       <c r="O148">
         <f t="shared" ca="1" si="2"/>
-        <v>59.433109423077561</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+        <v>65.397300657538381</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0</v>
       </c>
@@ -8068,10 +8069,10 @@
       </c>
       <c r="O149">
         <f t="shared" ca="1" si="2"/>
-        <v>11.604445780023974</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
+        <v>13.523455861316799</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>1</v>
       </c>
@@ -8116,10 +8117,10 @@
       </c>
       <c r="O150">
         <f t="shared" ca="1" si="2"/>
-        <v>62.118349535986503</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
+        <v>47.631008572768913</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>2</v>
       </c>
@@ -8164,10 +8165,10 @@
       </c>
       <c r="O151">
         <f t="shared" ca="1" si="2"/>
-        <v>19.138952265528161</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
+        <v>22.901756058638217</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>3</v>
       </c>
@@ -8212,10 +8213,10 @@
       </c>
       <c r="O152">
         <f t="shared" ca="1" si="2"/>
-        <v>51.46228019491091</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.45">
+        <v>59.017303197810968</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>4</v>
       </c>
@@ -8260,10 +8261,10 @@
       </c>
       <c r="O153">
         <f t="shared" ca="1" si="2"/>
-        <v>30.372697315664343</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.45">
+        <v>58.161279361845224</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>5</v>
       </c>
@@ -8308,10 +8309,10 @@
       </c>
       <c r="O154">
         <f t="shared" ca="1" si="2"/>
-        <v>17.406840591570862</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.45">
+        <v>35.744322490934707</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>6</v>
       </c>
@@ -8356,10 +8357,10 @@
       </c>
       <c r="O155">
         <f t="shared" ca="1" si="2"/>
-        <v>34.635858187723116</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.45">
+        <v>25.717432461829809</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>7</v>
       </c>
@@ -8404,10 +8405,10 @@
       </c>
       <c r="O156">
         <f t="shared" ca="1" si="2"/>
-        <v>56.520972944475446</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.45">
+        <v>39.724232102291687</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>8</v>
       </c>
@@ -8452,10 +8453,10 @@
       </c>
       <c r="O157">
         <f t="shared" ca="1" si="2"/>
-        <v>71.237289049787421</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.45">
+        <v>52.094339964529425</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>9</v>
       </c>
@@ -8500,10 +8501,10 @@
       </c>
       <c r="O158">
         <f t="shared" ca="1" si="2"/>
-        <v>15.359137392523632</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.45">
+        <v>78.853398161812819</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>10</v>
       </c>
@@ -8548,10 +8549,10 @@
       </c>
       <c r="O159">
         <f t="shared" ca="1" si="2"/>
-        <v>70.698205418342056</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.45">
+        <v>79.609050870304159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>11</v>
       </c>
@@ -8596,10 +8597,10 @@
       </c>
       <c r="O160">
         <f t="shared" ca="1" si="2"/>
-        <v>47.655013466761474</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.45">
+        <v>14.569391196283572</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>12</v>
       </c>
@@ -8644,10 +8645,10 @@
       </c>
       <c r="O161">
         <f t="shared" ca="1" si="2"/>
-        <v>79.737010123497456</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.45">
+        <v>51.734162187345923</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>13</v>
       </c>
@@ -8692,10 +8693,10 @@
       </c>
       <c r="O162">
         <f t="shared" ca="1" si="2"/>
-        <v>44.94479284926345</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.45">
+        <v>43.377360281956918</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>14</v>
       </c>
@@ -8740,10 +8741,10 @@
       </c>
       <c r="O163">
         <f t="shared" ca="1" si="2"/>
-        <v>78.91527843799318</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.45">
+        <v>34.73792223984286</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>15</v>
       </c>
@@ -8788,10 +8789,10 @@
       </c>
       <c r="O164">
         <f t="shared" ca="1" si="2"/>
-        <v>29.997600574276476</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.45">
+        <v>26.558166435568602</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>16</v>
       </c>
@@ -8836,10 +8837,10 @@
       </c>
       <c r="O165">
         <f t="shared" ca="1" si="2"/>
-        <v>77.458460231538851</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.45">
+        <v>77.799612465605207</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>17</v>
       </c>
@@ -8884,10 +8885,10 @@
       </c>
       <c r="O166">
         <f t="shared" ca="1" si="2"/>
-        <v>45.201976046887907</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.45">
+        <v>37.366819934167012</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>18</v>
       </c>
@@ -8932,10 +8933,10 @@
       </c>
       <c r="O167">
         <f t="shared" ca="1" si="2"/>
-        <v>37.046372893659992</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.45">
+        <v>71.221391764338364</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>19</v>
       </c>
@@ -8980,10 +8981,10 @@
       </c>
       <c r="O168">
         <f t="shared" ca="1" si="2"/>
-        <v>76.464259952919761</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.45">
+        <v>49.275015298031313</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>20</v>
       </c>
@@ -9028,10 +9029,10 @@
       </c>
       <c r="O169">
         <f t="shared" ca="1" si="2"/>
-        <v>47.035947697701715</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.45">
+        <v>16.590213751859046</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>0</v>
       </c>
@@ -9076,10 +9077,10 @@
       </c>
       <c r="O170">
         <f t="shared" ca="1" si="2"/>
-        <v>32.285335294023341</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.45">
+        <v>71.28762660539482</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1</v>
       </c>
@@ -9124,10 +9125,10 @@
       </c>
       <c r="O171">
         <f t="shared" ca="1" si="2"/>
-        <v>54.425074530857231</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.45">
+        <v>41.048758551537063</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>2</v>
       </c>
@@ -9172,10 +9173,10 @@
       </c>
       <c r="O172">
         <f t="shared" ca="1" si="2"/>
-        <v>31.388459200794376</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.45">
+        <v>57.340672613954382</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>3</v>
       </c>
@@ -9220,10 +9221,10 @@
       </c>
       <c r="O173">
         <f t="shared" ca="1" si="2"/>
-        <v>21.956581729126395</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.45">
+        <v>44.224027220541444</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>4</v>
       </c>
@@ -9268,10 +9269,10 @@
       </c>
       <c r="O174">
         <f t="shared" ca="1" si="2"/>
-        <v>13.953294120679393</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.45">
+        <v>25.360473683806976</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>5</v>
       </c>
@@ -9316,10 +9317,10 @@
       </c>
       <c r="O175">
         <f t="shared" ca="1" si="2"/>
-        <v>24.207391033058848</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.45">
+        <v>76.758312556303068</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>6</v>
       </c>
@@ -9364,10 +9365,10 @@
       </c>
       <c r="O176">
         <f t="shared" ca="1" si="2"/>
-        <v>13.567668419175739</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.45">
+        <v>74.101975100252645</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>7</v>
       </c>
@@ -9412,10 +9413,10 @@
       </c>
       <c r="O177">
         <f t="shared" ca="1" si="2"/>
-        <v>63.240557687226584</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.45">
+        <v>76.068456365121335</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>8</v>
       </c>
@@ -9460,10 +9461,10 @@
       </c>
       <c r="O178">
         <f t="shared" ca="1" si="2"/>
-        <v>27.062646744599704</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.45">
+        <v>12.158305554167709</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>9</v>
       </c>
@@ -9508,10 +9509,10 @@
       </c>
       <c r="O179">
         <f t="shared" ca="1" si="2"/>
-        <v>48.798249025649895</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.45">
+        <v>70.424367058348366</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>10</v>
       </c>
@@ -9556,10 +9557,10 @@
       </c>
       <c r="O180">
         <f t="shared" ca="1" si="2"/>
-        <v>11.635969565541886</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.45">
+        <v>57.70341847286457</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>11</v>
       </c>
@@ -9604,10 +9605,10 @@
       </c>
       <c r="O181">
         <f t="shared" ca="1" si="2"/>
-        <v>73.997392730125739</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.45">
+        <v>22.178026369414905</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>12</v>
       </c>
@@ -9652,10 +9653,10 @@
       </c>
       <c r="O182">
         <f t="shared" ca="1" si="2"/>
-        <v>22.408341007483834</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.45">
+        <v>55.312755022694752</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>13</v>
       </c>
@@ -9700,10 +9701,10 @@
       </c>
       <c r="O183">
         <f t="shared" ca="1" si="2"/>
-        <v>37.352241991802188</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.45">
+        <v>38.790238671524747</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>14</v>
       </c>
@@ -9748,10 +9749,10 @@
       </c>
       <c r="O184">
         <f t="shared" ca="1" si="2"/>
-        <v>15.169079781059743</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.45">
+        <v>54.349417276843013</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>15</v>
       </c>
@@ -9796,10 +9797,10 @@
       </c>
       <c r="O185">
         <f t="shared" ca="1" si="2"/>
-        <v>10.965647582104738</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.45">
+        <v>63.535130298203903</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>16</v>
       </c>
@@ -9844,10 +9845,10 @@
       </c>
       <c r="O186">
         <f t="shared" ca="1" si="2"/>
-        <v>11.229313854455116</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.45">
+        <v>33.45772373781702</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>17</v>
       </c>
@@ -9892,10 +9893,10 @@
       </c>
       <c r="O187">
         <f t="shared" ca="1" si="2"/>
-        <v>43.877447904217284</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.45">
+        <v>30.515729131964726</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>18</v>
       </c>
@@ -9940,10 +9941,10 @@
       </c>
       <c r="O188">
         <f t="shared" ca="1" si="2"/>
-        <v>66.120187819945784</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.45">
+        <v>62.027239111816385</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>19</v>
       </c>
@@ -9988,10 +9989,10 @@
       </c>
       <c r="O189">
         <f t="shared" ca="1" si="2"/>
-        <v>29.794962142335521</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.45">
+        <v>43.974257488244774</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>20</v>
       </c>
@@ -10036,10 +10037,10 @@
       </c>
       <c r="O190">
         <f t="shared" ca="1" si="2"/>
-        <v>23.139669418060528</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.45">
+        <v>28.087903805585501</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0</v>
       </c>
@@ -10084,10 +10085,10 @@
       </c>
       <c r="O191">
         <f t="shared" ca="1" si="2"/>
-        <v>49.046700318156468</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.45">
+        <v>79.01386984587117</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>1</v>
       </c>
@@ -10132,10 +10133,10 @@
       </c>
       <c r="O192">
         <f t="shared" ca="1" si="2"/>
-        <v>12.268670742640698</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
+        <v>63.489275284076683</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>2</v>
       </c>
@@ -10180,10 +10181,10 @@
       </c>
       <c r="O193">
         <f t="shared" ca="1" si="2"/>
-        <v>34.978897301797836</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
+        <v>30.306348045697007</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>3</v>
       </c>
@@ -10228,10 +10229,10 @@
       </c>
       <c r="O194">
         <f t="shared" ca="1" si="2"/>
-        <v>11.734574672168465</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
+        <v>56.088804209123495</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>4</v>
       </c>
@@ -10276,10 +10277,10 @@
       </c>
       <c r="O195">
         <f t="shared" ref="O195:O258" ca="1" si="3">10+70*RAND()</f>
-        <v>14.753535948182622</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
+        <v>67.819594199207387</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>5</v>
       </c>
@@ -10324,10 +10325,10 @@
       </c>
       <c r="O196">
         <f t="shared" ca="1" si="3"/>
-        <v>60.829760314699669</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
+        <v>45.836719919200213</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>6</v>
       </c>
@@ -10372,10 +10373,10 @@
       </c>
       <c r="O197">
         <f t="shared" ca="1" si="3"/>
-        <v>37.885702078750413</v>
-      </c>
-    </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
+        <v>13.0057248079573</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>7</v>
       </c>
@@ -10420,10 +10421,10 @@
       </c>
       <c r="O198">
         <f t="shared" ca="1" si="3"/>
-        <v>76.623668902109799</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
+        <v>52.405134153383393</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>8</v>
       </c>
@@ -10468,10 +10469,10 @@
       </c>
       <c r="O199">
         <f t="shared" ca="1" si="3"/>
-        <v>13.170183158199899</v>
-      </c>
-    </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
+        <v>45.199355493469767</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>9</v>
       </c>
@@ -10516,10 +10517,10 @@
       </c>
       <c r="O200">
         <f t="shared" ca="1" si="3"/>
-        <v>63.449289605221978</v>
-      </c>
-    </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
+        <v>39.83722755116866</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>10</v>
       </c>
@@ -10564,10 +10565,10 @@
       </c>
       <c r="O201">
         <f t="shared" ca="1" si="3"/>
-        <v>52.993776049945289</v>
-      </c>
-    </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
+        <v>22.838987750408549</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>11</v>
       </c>
@@ -10612,10 +10613,10 @@
       </c>
       <c r="O202">
         <f t="shared" ca="1" si="3"/>
-        <v>21.145989626837704</v>
-      </c>
-    </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.45">
+        <v>41.558385053390161</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>12</v>
       </c>
@@ -10660,10 +10661,10 @@
       </c>
       <c r="O203">
         <f t="shared" ca="1" si="3"/>
-        <v>76.756806294620134</v>
-      </c>
-    </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.45">
+        <v>28.097623781935354</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>13</v>
       </c>
@@ -10708,10 +10709,10 @@
       </c>
       <c r="O204">
         <f t="shared" ca="1" si="3"/>
-        <v>12.153048777022605</v>
-      </c>
-    </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.45">
+        <v>62.846156070796859</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>14</v>
       </c>
@@ -10756,10 +10757,10 @@
       </c>
       <c r="O205">
         <f t="shared" ca="1" si="3"/>
-        <v>41.204426570207602</v>
-      </c>
-    </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.45">
+        <v>39.36334564114032</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>15</v>
       </c>
@@ -10804,10 +10805,10 @@
       </c>
       <c r="O206">
         <f t="shared" ca="1" si="3"/>
-        <v>66.041725755750917</v>
-      </c>
-    </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.45">
+        <v>38.227223183554806</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>16</v>
       </c>
@@ -10852,10 +10853,10 @@
       </c>
       <c r="O207">
         <f t="shared" ca="1" si="3"/>
-        <v>14.988892539420494</v>
-      </c>
-    </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.45">
+        <v>52.734406476959172</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>17</v>
       </c>
@@ -10900,10 +10901,10 @@
       </c>
       <c r="O208">
         <f t="shared" ca="1" si="3"/>
-        <v>52.77998556355378</v>
-      </c>
-    </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.45">
+        <v>69.298725222484023</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>18</v>
       </c>
@@ -10948,10 +10949,10 @@
       </c>
       <c r="O209">
         <f t="shared" ca="1" si="3"/>
-        <v>66.158205763367761</v>
-      </c>
-    </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.45">
+        <v>60.384663966898216</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>19</v>
       </c>
@@ -10996,10 +10997,10 @@
       </c>
       <c r="O210">
         <f t="shared" ca="1" si="3"/>
-        <v>54.186335340653883</v>
-      </c>
-    </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.45">
+        <v>25.176932862539537</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>20</v>
       </c>
@@ -11044,10 +11045,10 @@
       </c>
       <c r="O211">
         <f t="shared" ca="1" si="3"/>
-        <v>51.784993759921555</v>
-      </c>
-    </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.45">
+        <v>62.940365482658962</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>0</v>
       </c>
@@ -11092,10 +11093,10 @@
       </c>
       <c r="O212">
         <f t="shared" ca="1" si="3"/>
-        <v>62.366749037055676</v>
-      </c>
-    </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.45">
+        <v>10.491388657749244</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>1</v>
       </c>
@@ -11140,10 +11141,10 @@
       </c>
       <c r="O213">
         <f t="shared" ca="1" si="3"/>
-        <v>29.558375945274914</v>
-      </c>
-    </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.45">
+        <v>12.879585411681916</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>2</v>
       </c>
@@ -11188,10 +11189,10 @@
       </c>
       <c r="O214">
         <f t="shared" ca="1" si="3"/>
-        <v>69.792861866115459</v>
-      </c>
-    </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.45">
+        <v>72.785655069967888</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>3</v>
       </c>
@@ -11236,10 +11237,10 @@
       </c>
       <c r="O215">
         <f t="shared" ca="1" si="3"/>
-        <v>17.02910279004033</v>
-      </c>
-    </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.45">
+        <v>55.948577391048168</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>4</v>
       </c>
@@ -11284,10 +11285,10 @@
       </c>
       <c r="O216">
         <f t="shared" ca="1" si="3"/>
-        <v>18.111173622253808</v>
-      </c>
-    </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.45">
+        <v>35.273596644316711</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>5</v>
       </c>
@@ -11332,10 +11333,10 @@
       </c>
       <c r="O217">
         <f t="shared" ca="1" si="3"/>
-        <v>23.417411319266485</v>
-      </c>
-    </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.45">
+        <v>52.417160556896874</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>6</v>
       </c>
@@ -11380,10 +11381,10 @@
       </c>
       <c r="O218">
         <f t="shared" ca="1" si="3"/>
-        <v>62.238686845399414</v>
-      </c>
-    </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.45">
+        <v>76.692717363779266</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>7</v>
       </c>
@@ -11428,10 +11429,10 @@
       </c>
       <c r="O219">
         <f t="shared" ca="1" si="3"/>
-        <v>28.596581200789398</v>
-      </c>
-    </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.45">
+        <v>59.203772266182256</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>8</v>
       </c>
@@ -11476,10 +11477,10 @@
       </c>
       <c r="O220">
         <f t="shared" ca="1" si="3"/>
-        <v>53.292909815930926</v>
-      </c>
-    </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.45">
+        <v>21.654261420972958</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>9</v>
       </c>
@@ -11524,10 +11525,10 @@
       </c>
       <c r="O221">
         <f t="shared" ca="1" si="3"/>
-        <v>48.833408753980358</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.45">
+        <v>19.15146647087413</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>10</v>
       </c>
@@ -11572,10 +11573,10 @@
       </c>
       <c r="O222">
         <f t="shared" ca="1" si="3"/>
-        <v>74.996563117375644</v>
-      </c>
-    </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.45">
+        <v>37.947124132301951</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>11</v>
       </c>
@@ -11620,10 +11621,10 @@
       </c>
       <c r="O223">
         <f t="shared" ca="1" si="3"/>
-        <v>67.336925105864566</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.45">
+        <v>59.655949624935474</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>12</v>
       </c>
@@ -11668,10 +11669,10 @@
       </c>
       <c r="O224">
         <f t="shared" ca="1" si="3"/>
-        <v>39.337756440331262</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.45">
+        <v>21.437500578084297</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>13</v>
       </c>
@@ -11716,10 +11717,10 @@
       </c>
       <c r="O225">
         <f t="shared" ca="1" si="3"/>
-        <v>55.76079729327396</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.45">
+        <v>65.861323657796163</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>14</v>
       </c>
@@ -11764,10 +11765,10 @@
       </c>
       <c r="O226">
         <f t="shared" ca="1" si="3"/>
-        <v>35.032339230504817</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.45">
+        <v>48.572375311433866</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>15</v>
       </c>
@@ -11812,10 +11813,10 @@
       </c>
       <c r="O227">
         <f t="shared" ca="1" si="3"/>
-        <v>73.989686390512531</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40.443455437718583</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>16</v>
       </c>
@@ -11860,10 +11861,10 @@
       </c>
       <c r="O228">
         <f t="shared" ca="1" si="3"/>
-        <v>11.737491110638</v>
-      </c>
-    </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.45">
+        <v>28.061378889145981</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>17</v>
       </c>
@@ -11908,10 +11909,10 @@
       </c>
       <c r="O229">
         <f t="shared" ca="1" si="3"/>
-        <v>21.433150892918519</v>
-      </c>
-    </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.45">
+        <v>22.876383926741738</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>18</v>
       </c>
@@ -11956,10 +11957,10 @@
       </c>
       <c r="O230">
         <f t="shared" ca="1" si="3"/>
-        <v>73.003866679288024</v>
-      </c>
-    </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.45">
+        <v>77.199225754085134</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>19</v>
       </c>
@@ -12004,10 +12005,10 @@
       </c>
       <c r="O231">
         <f t="shared" ca="1" si="3"/>
-        <v>64.308341953703689</v>
-      </c>
-    </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.45">
+        <v>63.141234113818143</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>20</v>
       </c>
@@ -12052,10 +12053,10 @@
       </c>
       <c r="O232">
         <f t="shared" ca="1" si="3"/>
-        <v>13.655866679895206</v>
-      </c>
-    </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.45">
+        <v>39.933969342475834</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>0</v>
       </c>
@@ -12100,10 +12101,10 @@
       </c>
       <c r="O233">
         <f t="shared" ca="1" si="3"/>
-        <v>43.418341232369272</v>
-      </c>
-    </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.45">
+        <v>45.201599787139784</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>1</v>
       </c>
@@ -12148,10 +12149,10 @@
       </c>
       <c r="O234">
         <f t="shared" ca="1" si="3"/>
-        <v>16.604899893521619</v>
-      </c>
-    </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.45">
+        <v>64.535300767962411</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>2</v>
       </c>
@@ -12196,10 +12197,10 @@
       </c>
       <c r="O235">
         <f t="shared" ca="1" si="3"/>
-        <v>68.490188239043562</v>
-      </c>
-    </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.45">
+        <v>15.912021808912977</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>3</v>
       </c>
@@ -12244,10 +12245,10 @@
       </c>
       <c r="O236">
         <f t="shared" ca="1" si="3"/>
-        <v>53.733803480279803</v>
-      </c>
-    </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.45">
+        <v>56.009189597185106</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>4</v>
       </c>
@@ -12292,10 +12293,10 @@
       </c>
       <c r="O237">
         <f t="shared" ca="1" si="3"/>
-        <v>73.429931106162343</v>
-      </c>
-    </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.45">
+        <v>43.074239476085594</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>5</v>
       </c>
@@ -12340,10 +12341,10 @@
       </c>
       <c r="O238">
         <f t="shared" ca="1" si="3"/>
-        <v>30.411578750742549</v>
-      </c>
-    </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.45">
+        <v>36.782784533277393</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>6</v>
       </c>
@@ -12388,10 +12389,10 @@
       </c>
       <c r="O239">
         <f t="shared" ca="1" si="3"/>
-        <v>24.725113900372772</v>
-      </c>
-    </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.45">
+        <v>54.816071896155456</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>7</v>
       </c>
@@ -12436,10 +12437,10 @@
       </c>
       <c r="O240">
         <f t="shared" ca="1" si="3"/>
-        <v>38.122147183570576</v>
-      </c>
-    </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.45">
+        <v>11.112455433121633</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>8</v>
       </c>
@@ -12484,10 +12485,10 @@
       </c>
       <c r="O241">
         <f t="shared" ca="1" si="3"/>
-        <v>45.970004946925556</v>
-      </c>
-    </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.45">
+        <v>35.994240195021021</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>9</v>
       </c>
@@ -12532,10 +12533,10 @@
       </c>
       <c r="O242">
         <f t="shared" ca="1" si="3"/>
-        <v>52.369048644112418</v>
-      </c>
-    </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.45">
+        <v>29.346067329407106</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>10</v>
       </c>
@@ -12580,10 +12581,10 @@
       </c>
       <c r="O243">
         <f t="shared" ca="1" si="3"/>
-        <v>52.947260427780165</v>
-      </c>
-    </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.45">
+        <v>32.533504350364026</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>11</v>
       </c>
@@ -12628,10 +12629,10 @@
       </c>
       <c r="O244">
         <f t="shared" ca="1" si="3"/>
-        <v>28.330239608303838</v>
-      </c>
-    </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.45">
+        <v>71.921359940320713</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>12</v>
       </c>
@@ -12676,10 +12677,10 @@
       </c>
       <c r="O245">
         <f t="shared" ca="1" si="3"/>
-        <v>60.161980244689389</v>
-      </c>
-    </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.45">
+        <v>12.226483461274157</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>13</v>
       </c>
@@ -12724,10 +12725,10 @@
       </c>
       <c r="O246">
         <f t="shared" ca="1" si="3"/>
-        <v>75.103107931035595</v>
-      </c>
-    </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.45">
+        <v>66.814379153492666</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>14</v>
       </c>
@@ -12772,10 +12773,10 @@
       </c>
       <c r="O247">
         <f t="shared" ca="1" si="3"/>
-        <v>54.824389021256387</v>
-      </c>
-    </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.45">
+        <v>31.234387859557575</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>15</v>
       </c>
@@ -12820,10 +12821,10 @@
       </c>
       <c r="O248">
         <f t="shared" ca="1" si="3"/>
-        <v>24.611411992865861</v>
-      </c>
-    </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.45">
+        <v>25.549367009201415</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>16</v>
       </c>
@@ -12868,10 +12869,10 @@
       </c>
       <c r="O249">
         <f t="shared" ca="1" si="3"/>
-        <v>11.439416849088309</v>
-      </c>
-    </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.45">
+        <v>25.015996741320102</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>17</v>
       </c>
@@ -12916,10 +12917,10 @@
       </c>
       <c r="O250">
         <f t="shared" ca="1" si="3"/>
-        <v>73.342086757965788</v>
-      </c>
-    </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.45">
+        <v>52.261777927111645</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>18</v>
       </c>
@@ -12964,10 +12965,10 @@
       </c>
       <c r="O251">
         <f t="shared" ca="1" si="3"/>
-        <v>57.08379964572292</v>
-      </c>
-    </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.45">
+        <v>31.431957852591005</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>19</v>
       </c>
@@ -13012,10 +13013,10 @@
       </c>
       <c r="O252">
         <f t="shared" ca="1" si="3"/>
-        <v>79.223371912879927</v>
-      </c>
-    </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.45">
+        <v>19.029181723064603</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>20</v>
       </c>
@@ -13060,10 +13061,10 @@
       </c>
       <c r="O253">
         <f t="shared" ca="1" si="3"/>
-        <v>59.592495348524821</v>
-      </c>
-    </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.45">
+        <v>41.807144933967535</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>0</v>
       </c>
@@ -13108,10 +13109,10 @@
       </c>
       <c r="O254">
         <f t="shared" ca="1" si="3"/>
-        <v>42.624203744322251</v>
-      </c>
-    </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.45">
+        <v>55.863018869844296</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>1</v>
       </c>
@@ -13156,10 +13157,10 @@
       </c>
       <c r="O255">
         <f t="shared" ca="1" si="3"/>
-        <v>21.158974239026541</v>
-      </c>
-    </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.45">
+        <v>54.562480772041106</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>2</v>
       </c>
@@ -13204,10 +13205,10 @@
       </c>
       <c r="O256">
         <f t="shared" ca="1" si="3"/>
-        <v>37.921438509090692</v>
-      </c>
-    </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.45">
+        <v>35.098097985944079</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>3</v>
       </c>
@@ -13252,10 +13253,10 @@
       </c>
       <c r="O257">
         <f t="shared" ca="1" si="3"/>
-        <v>33.092368633415603</v>
-      </c>
-    </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.45">
+        <v>44.343513969892889</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>4</v>
       </c>
@@ -13300,10 +13301,10 @@
       </c>
       <c r="O258">
         <f t="shared" ca="1" si="3"/>
-        <v>56.5515336067524</v>
-      </c>
-    </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.45">
+        <v>27.534342081887559</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>5</v>
       </c>
@@ -13348,10 +13349,10 @@
       </c>
       <c r="O259">
         <f t="shared" ref="O259:O322" ca="1" si="4">10+70*RAND()</f>
-        <v>36.955775419535335</v>
-      </c>
-    </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.45">
+        <v>78.785960453456909</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>6</v>
       </c>
@@ -13396,10 +13397,10 @@
       </c>
       <c r="O260">
         <f t="shared" ca="1" si="4"/>
-        <v>47.312508730163991</v>
-      </c>
-    </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.45">
+        <v>67.387042751654207</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>7</v>
       </c>
@@ -13444,10 +13445,10 @@
       </c>
       <c r="O261">
         <f t="shared" ca="1" si="4"/>
-        <v>17.467836824713984</v>
-      </c>
-    </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.45">
+        <v>79.570003684620858</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>8</v>
       </c>
@@ -13492,10 +13493,10 @@
       </c>
       <c r="O262">
         <f t="shared" ca="1" si="4"/>
-        <v>55.337000637566227</v>
-      </c>
-    </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.45">
+        <v>41.37699819040543</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>9</v>
       </c>
@@ -13540,10 +13541,10 @@
       </c>
       <c r="O263">
         <f t="shared" ca="1" si="4"/>
-        <v>43.250212730908004</v>
-      </c>
-    </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.45">
+        <v>74.343517022537284</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>10</v>
       </c>
@@ -13588,10 +13589,10 @@
       </c>
       <c r="O264">
         <f t="shared" ca="1" si="4"/>
-        <v>34.092828644274647</v>
-      </c>
-    </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.45">
+        <v>15.71486623287301</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>11</v>
       </c>
@@ -13636,10 +13637,10 @@
       </c>
       <c r="O265">
         <f t="shared" ca="1" si="4"/>
-        <v>27.539303430236814</v>
-      </c>
-    </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.45">
+        <v>64.580074973186456</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>12</v>
       </c>
@@ -13684,10 +13685,10 @@
       </c>
       <c r="O266">
         <f t="shared" ca="1" si="4"/>
-        <v>44.349079705994207</v>
-      </c>
-    </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.45">
+        <v>37.416710762800207</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>13</v>
       </c>
@@ -13732,10 +13733,10 @@
       </c>
       <c r="O267">
         <f t="shared" ca="1" si="4"/>
-        <v>37.731292949131898</v>
-      </c>
-    </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.45">
+        <v>69.095288807302921</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>14</v>
       </c>
@@ -13780,10 +13781,10 @@
       </c>
       <c r="O268">
         <f t="shared" ca="1" si="4"/>
-        <v>61.186957981297205</v>
-      </c>
-    </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.45">
+        <v>76.814350718208587</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>15</v>
       </c>
@@ -13828,10 +13829,10 @@
       </c>
       <c r="O269">
         <f t="shared" ca="1" si="4"/>
-        <v>75.035912277243511</v>
-      </c>
-    </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.45">
+        <v>13.882436521305223</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>16</v>
       </c>
@@ -13876,10 +13877,10 @@
       </c>
       <c r="O270">
         <f t="shared" ca="1" si="4"/>
-        <v>29.343712556465466</v>
-      </c>
-    </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.45">
+        <v>50.68298978578197</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>17</v>
       </c>
@@ -13924,10 +13925,10 @@
       </c>
       <c r="O271">
         <f t="shared" ca="1" si="4"/>
-        <v>24.728598659888164</v>
-      </c>
-    </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.45">
+        <v>14.534783005030524</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>18</v>
       </c>
@@ -13972,10 +13973,10 @@
       </c>
       <c r="O272">
         <f t="shared" ca="1" si="4"/>
-        <v>63.993808447442412</v>
-      </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.45">
+        <v>20.221991805719341</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>19</v>
       </c>
@@ -14020,10 +14021,10 @@
       </c>
       <c r="O273">
         <f t="shared" ca="1" si="4"/>
-        <v>17.237357698300286</v>
-      </c>
-    </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.45">
+        <v>46.21715608758327</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>20</v>
       </c>
@@ -14068,10 +14069,10 @@
       </c>
       <c r="O274">
         <f t="shared" ca="1" si="4"/>
-        <v>57.996233314287352</v>
-      </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.45">
+        <v>20.5448242490856</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>0</v>
       </c>
@@ -14116,10 +14117,10 @@
       </c>
       <c r="O275">
         <f t="shared" ca="1" si="4"/>
-        <v>71.266589361356665</v>
-      </c>
-    </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.45">
+        <v>22.736364274777944</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>1</v>
       </c>
@@ -14164,10 +14165,10 @@
       </c>
       <c r="O276">
         <f t="shared" ca="1" si="4"/>
-        <v>13.231607027587209</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.45">
+        <v>67.458192826268032</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>2</v>
       </c>
@@ -14212,10 +14213,10 @@
       </c>
       <c r="O277">
         <f t="shared" ca="1" si="4"/>
-        <v>70.725564936458269</v>
-      </c>
-    </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.45">
+        <v>12.057997932128416</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>3</v>
       </c>
@@ -14260,10 +14261,10 @@
       </c>
       <c r="O278">
         <f t="shared" ca="1" si="4"/>
-        <v>57.272616621584</v>
-      </c>
-    </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.45">
+        <v>70.636511269633459</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>4</v>
       </c>
@@ -14308,10 +14309,10 @@
       </c>
       <c r="O279">
         <f t="shared" ca="1" si="4"/>
-        <v>38.826935358061661</v>
-      </c>
-    </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.45">
+        <v>39.38884047120618</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>5</v>
       </c>
@@ -14356,10 +14357,10 @@
       </c>
       <c r="O280">
         <f t="shared" ca="1" si="4"/>
-        <v>77.752061757812001</v>
-      </c>
-    </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.45">
+        <v>77.48993913060491</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>6</v>
       </c>
@@ -14404,10 +14405,10 @@
       </c>
       <c r="O281">
         <f t="shared" ca="1" si="4"/>
-        <v>23.733293953433062</v>
-      </c>
-    </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.45">
+        <v>66.044612617651012</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>7</v>
       </c>
@@ -14452,10 +14453,10 @@
       </c>
       <c r="O282">
         <f t="shared" ca="1" si="4"/>
-        <v>19.415691437730167</v>
-      </c>
-    </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.45">
+        <v>30.385925668210454</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>8</v>
       </c>
@@ -14500,10 +14501,10 @@
       </c>
       <c r="O283">
         <f t="shared" ca="1" si="4"/>
-        <v>40.66570412352857</v>
-      </c>
-    </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.45">
+        <v>49.197368214113126</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>9</v>
       </c>
@@ -14548,10 +14549,10 @@
       </c>
       <c r="O284">
         <f t="shared" ca="1" si="4"/>
-        <v>79.553513515512279</v>
-      </c>
-    </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.45">
+        <v>23.128294302622152</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>10</v>
       </c>
@@ -14596,10 +14597,10 @@
       </c>
       <c r="O285">
         <f t="shared" ca="1" si="4"/>
-        <v>46.469189668255474</v>
-      </c>
-    </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.45">
+        <v>70.619405643954721</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>11</v>
       </c>
@@ -14644,10 +14645,10 @@
       </c>
       <c r="O286">
         <f t="shared" ca="1" si="4"/>
-        <v>34.182743302971623</v>
-      </c>
-    </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.45">
+        <v>57.965029769971693</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>12</v>
       </c>
@@ -14692,10 +14693,10 @@
       </c>
       <c r="O287">
         <f t="shared" ca="1" si="4"/>
-        <v>35.384273197528863</v>
-      </c>
-    </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.45">
+        <v>44.951941725907396</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>13</v>
       </c>
@@ -14740,10 +14741,10 @@
       </c>
       <c r="O288">
         <f t="shared" ca="1" si="4"/>
-        <v>29.512618853637484</v>
-      </c>
-    </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.45">
+        <v>72.418314999415315</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>14</v>
       </c>
@@ -14788,10 +14789,10 @@
       </c>
       <c r="O289">
         <f t="shared" ca="1" si="4"/>
-        <v>20.999269395463681</v>
-      </c>
-    </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.45">
+        <v>56.626902719168143</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>15</v>
       </c>
@@ -14836,10 +14837,10 @@
       </c>
       <c r="O290">
         <f t="shared" ca="1" si="4"/>
-        <v>67.698030533563127</v>
-      </c>
-    </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.45">
+        <v>42.530610125730163</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>16</v>
       </c>
@@ -14884,10 +14885,10 @@
       </c>
       <c r="O291">
         <f t="shared" ca="1" si="4"/>
-        <v>21.78095303947385</v>
-      </c>
-    </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.45">
+        <v>19.099367326358536</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>17</v>
       </c>
@@ -14932,10 +14933,10 @@
       </c>
       <c r="O292">
         <f t="shared" ca="1" si="4"/>
-        <v>17.679987068811265</v>
-      </c>
-    </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.45">
+        <v>74.268530936910608</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>18</v>
       </c>
@@ -14980,10 +14981,10 @@
       </c>
       <c r="O293">
         <f t="shared" ca="1" si="4"/>
-        <v>11.73474853912213</v>
-      </c>
-    </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.45">
+        <v>50.23484740228006</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>19</v>
       </c>
@@ -15028,10 +15029,10 @@
       </c>
       <c r="O294">
         <f t="shared" ca="1" si="4"/>
-        <v>24.930101657569239</v>
-      </c>
-    </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.45">
+        <v>21.470776717451891</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>20</v>
       </c>
@@ -15076,10 +15077,10 @@
       </c>
       <c r="O295">
         <f t="shared" ca="1" si="4"/>
-        <v>53.68985605432465</v>
-      </c>
-    </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.45">
+        <v>50.851263593520684</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>0</v>
       </c>
@@ -15124,10 +15125,10 @@
       </c>
       <c r="O296">
         <f t="shared" ca="1" si="4"/>
-        <v>31.417090223372448</v>
-      </c>
-    </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.45">
+        <v>65.790295197973563</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>1</v>
       </c>
@@ -15172,10 +15173,10 @@
       </c>
       <c r="O297">
         <f t="shared" ca="1" si="4"/>
-        <v>21.19933327467503</v>
-      </c>
-    </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.45">
+        <v>15.584953345564308</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>2</v>
       </c>
@@ -15220,10 +15221,10 @@
       </c>
       <c r="O298">
         <f t="shared" ca="1" si="4"/>
-        <v>37.394972962467833</v>
-      </c>
-    </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.45">
+        <v>74.164229451851213</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>3</v>
       </c>
@@ -15268,10 +15269,10 @@
       </c>
       <c r="O299">
         <f t="shared" ca="1" si="4"/>
-        <v>32.636128590916869</v>
-      </c>
-    </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.45">
+        <v>26.74131386735591</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>4</v>
       </c>
@@ -15316,10 +15317,10 @@
       </c>
       <c r="O300">
         <f t="shared" ca="1" si="4"/>
-        <v>55.803529097449747</v>
-      </c>
-    </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.45">
+        <v>79.861337062007777</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>5</v>
       </c>
@@ -15364,10 +15365,10 @@
       </c>
       <c r="O301">
         <f t="shared" ca="1" si="4"/>
-        <v>27.517985078224967</v>
-      </c>
-    </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.45">
+        <v>77.270303604369886</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>6</v>
       </c>
@@ -15412,10 +15413,10 @@
       </c>
       <c r="O302">
         <f t="shared" ca="1" si="4"/>
-        <v>62.029450011952889</v>
-      </c>
-    </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.45">
+        <v>79.761019189280162</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>7</v>
       </c>
@@ -15460,10 +15461,10 @@
       </c>
       <c r="O303">
         <f t="shared" ca="1" si="4"/>
-        <v>79.724676351673281</v>
-      </c>
-    </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.45">
+        <v>24.374307247681958</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>8</v>
       </c>
@@ -15508,10 +15509,10 @@
       </c>
       <c r="O304">
         <f t="shared" ca="1" si="4"/>
-        <v>57.950765593671569</v>
-      </c>
-    </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.45">
+        <v>36.966706015271726</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>9</v>
       </c>
@@ -15556,10 +15557,10 @@
       </c>
       <c r="O305">
         <f t="shared" ca="1" si="4"/>
-        <v>60.831479871483133</v>
-      </c>
-    </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.45">
+        <v>43.40097594930927</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>10</v>
       </c>
@@ -15604,10 +15605,10 @@
       </c>
       <c r="O306">
         <f t="shared" ca="1" si="4"/>
-        <v>69.670889515023305</v>
-      </c>
-    </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.45">
+        <v>23.995620067693082</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>11</v>
       </c>
@@ -15652,10 +15653,10 @@
       </c>
       <c r="O307">
         <f t="shared" ca="1" si="4"/>
-        <v>58.101321735979674</v>
-      </c>
-    </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.45">
+        <v>22.641681097267657</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>12</v>
       </c>
@@ -15700,10 +15701,10 @@
       </c>
       <c r="O308">
         <f t="shared" ca="1" si="4"/>
-        <v>60.273869089942245</v>
-      </c>
-    </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.45">
+        <v>53.224971398863772</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>13</v>
       </c>
@@ -15748,10 +15749,10 @@
       </c>
       <c r="O309">
         <f t="shared" ca="1" si="4"/>
-        <v>75.505813035778715</v>
-      </c>
-    </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.45">
+        <v>13.404952236524759</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>14</v>
       </c>
@@ -15796,10 +15797,10 @@
       </c>
       <c r="O310">
         <f t="shared" ca="1" si="4"/>
-        <v>54.70914943140648</v>
-      </c>
-    </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.45">
+        <v>37.987486863010417</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>15</v>
       </c>
@@ -15844,10 +15845,10 @@
       </c>
       <c r="O311">
         <f t="shared" ca="1" si="4"/>
-        <v>64.818715625922181</v>
-      </c>
-    </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.45">
+        <v>35.067084259758275</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>16</v>
       </c>
@@ -15892,10 +15893,10 @@
       </c>
       <c r="O312">
         <f t="shared" ca="1" si="4"/>
-        <v>49.483701763453737</v>
-      </c>
-    </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.45">
+        <v>56.847406640321559</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>17</v>
       </c>
@@ -15940,10 +15941,10 @@
       </c>
       <c r="O313">
         <f t="shared" ca="1" si="4"/>
-        <v>33.297389280494599</v>
-      </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.45">
+        <v>22.420461263626855</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>18</v>
       </c>
@@ -15988,10 +15989,10 @@
       </c>
       <c r="O314">
         <f t="shared" ca="1" si="4"/>
-        <v>16.913474100397909</v>
-      </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.45">
+        <v>53.370562735604452</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>19</v>
       </c>
@@ -16036,10 +16037,10 @@
       </c>
       <c r="O315">
         <f t="shared" ca="1" si="4"/>
-        <v>64.764962337701178</v>
-      </c>
-    </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.45">
+        <v>34.439997819347653</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>20</v>
       </c>
@@ -16084,10 +16085,10 @@
       </c>
       <c r="O316">
         <f t="shared" ca="1" si="4"/>
-        <v>18.099915046240131</v>
-      </c>
-    </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.45">
+        <v>72.615690864258241</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>0</v>
       </c>
@@ -16132,10 +16133,10 @@
       </c>
       <c r="O317">
         <f t="shared" ca="1" si="4"/>
-        <v>37.114133289788654</v>
-      </c>
-    </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.45">
+        <v>38.208478442910533</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>1</v>
       </c>
@@ -16180,10 +16181,10 @@
       </c>
       <c r="O318">
         <f t="shared" ca="1" si="4"/>
-        <v>21.472777630387206</v>
-      </c>
-    </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.45">
+        <v>29.070107969024562</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>2</v>
       </c>
@@ -16228,10 +16229,10 @@
       </c>
       <c r="O319">
         <f t="shared" ca="1" si="4"/>
-        <v>68.958876240319398</v>
-      </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.45">
+        <v>29.259511474790514</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>3</v>
       </c>
@@ -16276,10 +16277,10 @@
       </c>
       <c r="O320">
         <f t="shared" ca="1" si="4"/>
-        <v>69.58484481818148</v>
-      </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.45">
+        <v>25.515079153441359</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>4</v>
       </c>
@@ -16324,10 +16325,10 @@
       </c>
       <c r="O321">
         <f t="shared" ca="1" si="4"/>
-        <v>13.8868657930403</v>
-      </c>
-    </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.45">
+        <v>30.125345198471106</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>5</v>
       </c>
@@ -16372,10 +16373,10 @@
       </c>
       <c r="O322">
         <f t="shared" ca="1" si="4"/>
-        <v>43.297131060113529</v>
-      </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.45">
+        <v>69.682541445818146</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>6</v>
       </c>
@@ -16420,10 +16421,10 @@
       </c>
       <c r="O323">
         <f t="shared" ref="O323:O386" ca="1" si="5">10+70*RAND()</f>
-        <v>51.113093922590288</v>
-      </c>
-    </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.45">
+        <v>56.753369850866271</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>7</v>
       </c>
@@ -16468,10 +16469,10 @@
       </c>
       <c r="O324">
         <f t="shared" ca="1" si="5"/>
-        <v>61.683620311856124</v>
-      </c>
-    </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.45">
+        <v>30.314882869843039</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>8</v>
       </c>
@@ -16516,10 +16517,10 @@
       </c>
       <c r="O325">
         <f t="shared" ca="1" si="5"/>
-        <v>40.867475830009653</v>
-      </c>
-    </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.45">
+        <v>68.050466647676103</v>
+      </c>
+    </row>
+    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>9</v>
       </c>
@@ -16564,10 +16565,10 @@
       </c>
       <c r="O326">
         <f t="shared" ca="1" si="5"/>
-        <v>10.86850826368382</v>
-      </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.45">
+        <v>52.537914779966037</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>10</v>
       </c>
@@ -16612,10 +16613,10 @@
       </c>
       <c r="O327">
         <f t="shared" ca="1" si="5"/>
-        <v>24.556645404606055</v>
-      </c>
-    </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.45">
+        <v>31.435977922424762</v>
+      </c>
+    </row>
+    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>11</v>
       </c>
@@ -16660,10 +16661,10 @@
       </c>
       <c r="O328">
         <f t="shared" ca="1" si="5"/>
-        <v>61.519822433693662</v>
-      </c>
-    </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.45">
+        <v>62.636882947805354</v>
+      </c>
+    </row>
+    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>12</v>
       </c>
@@ -16708,10 +16709,10 @@
       </c>
       <c r="O329">
         <f t="shared" ca="1" si="5"/>
-        <v>50.577858521617436</v>
-      </c>
-    </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.45">
+        <v>25.496951629585613</v>
+      </c>
+    </row>
+    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>13</v>
       </c>
@@ -16756,10 +16757,10 @@
       </c>
       <c r="O330">
         <f t="shared" ca="1" si="5"/>
-        <v>29.631309203859285</v>
-      </c>
-    </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.45">
+        <v>51.127696922660327</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>14</v>
       </c>
@@ -16804,10 +16805,10 @@
       </c>
       <c r="O331">
         <f t="shared" ca="1" si="5"/>
-        <v>33.904231210678951</v>
-      </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.45">
+        <v>61.477366956628337</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>15</v>
       </c>
@@ -16852,10 +16853,10 @@
       </c>
       <c r="O332">
         <f t="shared" ca="1" si="5"/>
-        <v>32.572311385543259</v>
-      </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.45">
+        <v>11.32952199995967</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>16</v>
       </c>
@@ -16900,10 +16901,10 @@
       </c>
       <c r="O333">
         <f t="shared" ca="1" si="5"/>
-        <v>40.565364317634177</v>
-      </c>
-    </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.45">
+        <v>10.525713256549867</v>
+      </c>
+    </row>
+    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>17</v>
       </c>
@@ -16948,10 +16949,10 @@
       </c>
       <c r="O334">
         <f t="shared" ca="1" si="5"/>
-        <v>13.764399189614576</v>
-      </c>
-    </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.45">
+        <v>31.82600485461569</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>18</v>
       </c>
@@ -16996,10 +16997,10 @@
       </c>
       <c r="O335">
         <f t="shared" ca="1" si="5"/>
-        <v>50.001814187170311</v>
-      </c>
-    </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.45">
+        <v>17.23847746617443</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>19</v>
       </c>
@@ -17044,10 +17045,10 @@
       </c>
       <c r="O336">
         <f t="shared" ca="1" si="5"/>
-        <v>26.614903836681787</v>
-      </c>
-    </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.45">
+        <v>38.184344205718148</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>20</v>
       </c>
@@ -17092,10 +17093,10 @@
       </c>
       <c r="O337">
         <f t="shared" ca="1" si="5"/>
-        <v>44.033993105602093</v>
-      </c>
-    </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.45">
+        <v>18.799539592447804</v>
+      </c>
+    </row>
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>0</v>
       </c>
@@ -17140,10 +17141,10 @@
       </c>
       <c r="O338">
         <f t="shared" ca="1" si="5"/>
-        <v>32.746941020202094</v>
-      </c>
-    </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.45">
+        <v>27.40308164130521</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>1</v>
       </c>
@@ -17188,10 +17189,10 @@
       </c>
       <c r="O339">
         <f t="shared" ca="1" si="5"/>
-        <v>39.679127446134267</v>
-      </c>
-    </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.45">
+        <v>43.741539141472536</v>
+      </c>
+    </row>
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>2</v>
       </c>
@@ -17236,10 +17237,10 @@
       </c>
       <c r="O340">
         <f t="shared" ca="1" si="5"/>
-        <v>77.786682253270158</v>
-      </c>
-    </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.45">
+        <v>34.296378089926733</v>
+      </c>
+    </row>
+    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>3</v>
       </c>
@@ -17284,10 +17285,10 @@
       </c>
       <c r="O341">
         <f t="shared" ca="1" si="5"/>
-        <v>59.503540711610015</v>
-      </c>
-    </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.45">
+        <v>61.229825154221494</v>
+      </c>
+    </row>
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>4</v>
       </c>
@@ -17332,10 +17333,10 @@
       </c>
       <c r="O342">
         <f t="shared" ca="1" si="5"/>
-        <v>73.695630816306192</v>
-      </c>
-    </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.45">
+        <v>43.055522096891728</v>
+      </c>
+    </row>
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>5</v>
       </c>
@@ -17380,10 +17381,10 @@
       </c>
       <c r="O343">
         <f t="shared" ca="1" si="5"/>
-        <v>18.881172628248933</v>
-      </c>
-    </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.45">
+        <v>59.716831540006957</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>6</v>
       </c>
@@ -17428,10 +17429,10 @@
       </c>
       <c r="O344">
         <f t="shared" ca="1" si="5"/>
-        <v>14.353414505297682</v>
-      </c>
-    </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.45">
+        <v>73.925903618383998</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>7</v>
       </c>
@@ -17476,10 +17477,10 @@
       </c>
       <c r="O345">
         <f t="shared" ca="1" si="5"/>
-        <v>11.145962568356392</v>
-      </c>
-    </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.45">
+        <v>56.735587742788169</v>
+      </c>
+    </row>
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>8</v>
       </c>
@@ -17524,10 +17525,10 @@
       </c>
       <c r="O346">
         <f t="shared" ca="1" si="5"/>
-        <v>61.667513838210347</v>
-      </c>
-    </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.45">
+        <v>56.62138993048751</v>
+      </c>
+    </row>
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>9</v>
       </c>
@@ -17572,10 +17573,10 @@
       </c>
       <c r="O347">
         <f t="shared" ca="1" si="5"/>
-        <v>51.751068721445606</v>
-      </c>
-    </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.45">
+        <v>30.685655965559693</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>10</v>
       </c>
@@ -17620,10 +17621,10 @@
       </c>
       <c r="O348">
         <f t="shared" ca="1" si="5"/>
-        <v>53.763519096298822</v>
-      </c>
-    </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.45">
+        <v>32.965921301532589</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>11</v>
       </c>
@@ -17668,10 +17669,10 @@
       </c>
       <c r="O349">
         <f t="shared" ca="1" si="5"/>
-        <v>69.480761776850898</v>
-      </c>
-    </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.45">
+        <v>33.475009895976171</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>12</v>
       </c>
@@ -17716,10 +17717,10 @@
       </c>
       <c r="O350">
         <f t="shared" ca="1" si="5"/>
-        <v>14.8865708162221</v>
-      </c>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.45">
+        <v>55.573923172981011</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>13</v>
       </c>
@@ -17764,10 +17765,10 @@
       </c>
       <c r="O351">
         <f t="shared" ca="1" si="5"/>
-        <v>37.832027884113828</v>
-      </c>
-    </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.45">
+        <v>64.147771308423444</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>14</v>
       </c>
@@ -17812,10 +17813,10 @@
       </c>
       <c r="O352">
         <f t="shared" ca="1" si="5"/>
-        <v>24.268110341030962</v>
-      </c>
-    </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.45">
+        <v>78.319839664934079</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>15</v>
       </c>
@@ -17860,10 +17861,10 @@
       </c>
       <c r="O353">
         <f t="shared" ca="1" si="5"/>
-        <v>75.046082583644733</v>
-      </c>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.45">
+        <v>44.356005398121766</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>16</v>
       </c>
@@ -17908,10 +17909,10 @@
       </c>
       <c r="O354">
         <f t="shared" ca="1" si="5"/>
-        <v>59.551895495581185</v>
-      </c>
-    </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.45">
+        <v>14.737401130279391</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>17</v>
       </c>
@@ -17956,10 +17957,10 @@
       </c>
       <c r="O355">
         <f t="shared" ca="1" si="5"/>
-        <v>38.190445893981192</v>
-      </c>
-    </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.45">
+        <v>35.717853790126682</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>18</v>
       </c>
@@ -18004,10 +18005,10 @@
       </c>
       <c r="O356">
         <f t="shared" ca="1" si="5"/>
-        <v>77.118624041817185</v>
-      </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.45">
+        <v>76.361404519307712</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>19</v>
       </c>
@@ -18052,10 +18053,10 @@
       </c>
       <c r="O357">
         <f t="shared" ca="1" si="5"/>
-        <v>78.815505037094439</v>
-      </c>
-    </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.45">
+        <v>63.054521753003272</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>20</v>
       </c>
@@ -18100,10 +18101,10 @@
       </c>
       <c r="O358">
         <f t="shared" ca="1" si="5"/>
-        <v>18.381890660505455</v>
-      </c>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.45">
+        <v>73.38380964626208</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>0</v>
       </c>
@@ -18148,10 +18149,10 @@
       </c>
       <c r="O359">
         <f t="shared" ca="1" si="5"/>
-        <v>18.872002202421776</v>
-      </c>
-    </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.45">
+        <v>60.578757669327878</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>1</v>
       </c>
@@ -18196,10 +18197,10 @@
       </c>
       <c r="O360">
         <f t="shared" ca="1" si="5"/>
-        <v>35.793715368025218</v>
-      </c>
-    </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.45">
+        <v>23.698136867867568</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>2</v>
       </c>
@@ -18244,10 +18245,10 @@
       </c>
       <c r="O361">
         <f t="shared" ca="1" si="5"/>
-        <v>32.124595687872784</v>
-      </c>
-    </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.45">
+        <v>72.846984888847203</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>3</v>
       </c>
@@ -18292,10 +18293,10 @@
       </c>
       <c r="O362">
         <f t="shared" ca="1" si="5"/>
-        <v>63.892502302939675</v>
-      </c>
-    </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.45">
+        <v>44.564613228117835</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>4</v>
       </c>
@@ -18340,10 +18341,10 @@
       </c>
       <c r="O363">
         <f t="shared" ca="1" si="5"/>
-        <v>75.424871474684949</v>
-      </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.45">
+        <v>68.95298206652916</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>5</v>
       </c>
@@ -18388,10 +18389,10 @@
       </c>
       <c r="O364">
         <f t="shared" ca="1" si="5"/>
-        <v>67.774435671211251</v>
-      </c>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.45">
+        <v>17.020905601456725</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>6</v>
       </c>
@@ -18436,10 +18437,10 @@
       </c>
       <c r="O365">
         <f t="shared" ca="1" si="5"/>
-        <v>56.814009751775835</v>
-      </c>
-    </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.45">
+        <v>75.008571197009445</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>7</v>
       </c>
@@ -18484,10 +18485,10 @@
       </c>
       <c r="O366">
         <f t="shared" ca="1" si="5"/>
-        <v>63.423690179443199</v>
-      </c>
-    </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.45">
+        <v>76.162595381376633</v>
+      </c>
+    </row>
+    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>8</v>
       </c>
@@ -18532,10 +18533,10 @@
       </c>
       <c r="O367">
         <f t="shared" ca="1" si="5"/>
-        <v>43.852441312485944</v>
-      </c>
-    </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.45">
+        <v>67.827503725769589</v>
+      </c>
+    </row>
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>9</v>
       </c>
@@ -18580,10 +18581,10 @@
       </c>
       <c r="O368">
         <f t="shared" ca="1" si="5"/>
-        <v>79.15429528031315</v>
-      </c>
-    </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.45">
+        <v>78.302555166877639</v>
+      </c>
+    </row>
+    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>10</v>
       </c>
@@ -18628,10 +18629,10 @@
       </c>
       <c r="O369">
         <f t="shared" ca="1" si="5"/>
-        <v>49.297458466925754</v>
-      </c>
-    </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.45">
+        <v>26.912895182659685</v>
+      </c>
+    </row>
+    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>11</v>
       </c>
@@ -18676,10 +18677,10 @@
       </c>
       <c r="O370">
         <f t="shared" ca="1" si="5"/>
-        <v>66.301349569505135</v>
-      </c>
-    </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.45">
+        <v>39.471331352784446</v>
+      </c>
+    </row>
+    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>12</v>
       </c>
@@ -18724,10 +18725,10 @@
       </c>
       <c r="O371">
         <f t="shared" ca="1" si="5"/>
-        <v>31.164477789207201</v>
-      </c>
-    </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.45">
+        <v>18.819233656598623</v>
+      </c>
+    </row>
+    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>13</v>
       </c>
@@ -18772,10 +18773,10 @@
       </c>
       <c r="O372">
         <f t="shared" ca="1" si="5"/>
-        <v>15.821627729781483</v>
-      </c>
-    </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.45">
+        <v>20.537641747553394</v>
+      </c>
+    </row>
+    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>14</v>
       </c>
@@ -18820,10 +18821,10 @@
       </c>
       <c r="O373">
         <f t="shared" ca="1" si="5"/>
-        <v>77.751803240150068</v>
-      </c>
-    </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.45">
+        <v>20.053723130967288</v>
+      </c>
+    </row>
+    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>15</v>
       </c>
@@ -18868,10 +18869,10 @@
       </c>
       <c r="O374">
         <f t="shared" ca="1" si="5"/>
-        <v>66.948036903658277</v>
-      </c>
-    </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.45">
+        <v>17.320515772879123</v>
+      </c>
+    </row>
+    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>16</v>
       </c>
@@ -18916,10 +18917,10 @@
       </c>
       <c r="O375">
         <f t="shared" ca="1" si="5"/>
-        <v>35.011993202875836</v>
-      </c>
-    </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.45">
+        <v>47.096486072643145</v>
+      </c>
+    </row>
+    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>17</v>
       </c>
@@ -18964,10 +18965,10 @@
       </c>
       <c r="O376">
         <f t="shared" ca="1" si="5"/>
-        <v>67.160992886761733</v>
-      </c>
-    </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.45">
+        <v>66.139016778056174</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>18</v>
       </c>
@@ -19012,10 +19013,10 @@
       </c>
       <c r="O377">
         <f t="shared" ca="1" si="5"/>
-        <v>74.381472664658872</v>
-      </c>
-    </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.45">
+        <v>14.600490100880085</v>
+      </c>
+    </row>
+    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>19</v>
       </c>
@@ -19060,10 +19061,10 @@
       </c>
       <c r="O378">
         <f t="shared" ca="1" si="5"/>
-        <v>23.853909462337214</v>
-      </c>
-    </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.45">
+        <v>65.404807336201316</v>
+      </c>
+    </row>
+    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>20</v>
       </c>
@@ -19108,10 +19109,10 @@
       </c>
       <c r="O379">
         <f t="shared" ca="1" si="5"/>
-        <v>59.456464714599093</v>
-      </c>
-    </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.45">
+        <v>58.485243742644954</v>
+      </c>
+    </row>
+    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>0</v>
       </c>
@@ -19156,10 +19157,10 @@
       </c>
       <c r="O380">
         <f t="shared" ca="1" si="5"/>
-        <v>54.313969266863026</v>
-      </c>
-    </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.45">
+        <v>14.385320943363139</v>
+      </c>
+    </row>
+    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>1</v>
       </c>
@@ -19204,10 +19205,10 @@
       </c>
       <c r="O381">
         <f t="shared" ca="1" si="5"/>
-        <v>31.975230840743578</v>
-      </c>
-    </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.45">
+        <v>68.939009117582387</v>
+      </c>
+    </row>
+    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>2</v>
       </c>
@@ -19252,10 +19253,10 @@
       </c>
       <c r="O382">
         <f t="shared" ca="1" si="5"/>
-        <v>65.701212823404234</v>
-      </c>
-    </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.45">
+        <v>47.591709812621239</v>
+      </c>
+    </row>
+    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>3</v>
       </c>
@@ -19300,10 +19301,10 @@
       </c>
       <c r="O383">
         <f t="shared" ca="1" si="5"/>
-        <v>54.967856078002775</v>
-      </c>
-    </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.45">
+        <v>75.956963294279419</v>
+      </c>
+    </row>
+    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>4</v>
       </c>
@@ -19348,10 +19349,10 @@
       </c>
       <c r="O384">
         <f t="shared" ca="1" si="5"/>
-        <v>24.900297832770427</v>
-      </c>
-    </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.45">
+        <v>55.089893831022898</v>
+      </c>
+    </row>
+    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>5</v>
       </c>
@@ -19396,10 +19397,10 @@
       </c>
       <c r="O385">
         <f t="shared" ca="1" si="5"/>
-        <v>45.865572492474143</v>
-      </c>
-    </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.45">
+        <v>21.759732125253059</v>
+      </c>
+    </row>
+    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>6</v>
       </c>
@@ -19444,10 +19445,10 @@
       </c>
       <c r="O386">
         <f t="shared" ca="1" si="5"/>
-        <v>28.649041071522667</v>
-      </c>
-    </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.45">
+        <v>68.13412304717545</v>
+      </c>
+    </row>
+    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>7</v>
       </c>
@@ -19492,10 +19493,10 @@
       </c>
       <c r="O387">
         <f t="shared" ref="O387:O442" ca="1" si="6">10+70*RAND()</f>
-        <v>33.254965250407885</v>
-      </c>
-    </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.45">
+        <v>57.799762973971049</v>
+      </c>
+    </row>
+    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>8</v>
       </c>
@@ -19540,10 +19541,10 @@
       </c>
       <c r="O388">
         <f t="shared" ca="1" si="6"/>
-        <v>44.672735928615232</v>
-      </c>
-    </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.45">
+        <v>77.657667099395411</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>9</v>
       </c>
@@ -19588,10 +19589,10 @@
       </c>
       <c r="O389">
         <f t="shared" ca="1" si="6"/>
-        <v>20.994849411616478</v>
-      </c>
-    </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.45">
+        <v>22.737479846743074</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>10</v>
       </c>
@@ -19636,10 +19637,10 @@
       </c>
       <c r="O390">
         <f t="shared" ca="1" si="6"/>
-        <v>53.716953366769623</v>
-      </c>
-    </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.45">
+        <v>69.540553301739891</v>
+      </c>
+    </row>
+    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>11</v>
       </c>
@@ -19684,10 +19685,10 @@
       </c>
       <c r="O391">
         <f t="shared" ca="1" si="6"/>
-        <v>74.943678135207577</v>
-      </c>
-    </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.45">
+        <v>53.510136372473717</v>
+      </c>
+    </row>
+    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>12</v>
       </c>
@@ -19732,10 +19733,10 @@
       </c>
       <c r="O392">
         <f t="shared" ca="1" si="6"/>
-        <v>40.798485028745638</v>
-      </c>
-    </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.45">
+        <v>73.772898757131543</v>
+      </c>
+    </row>
+    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>13</v>
       </c>
@@ -19780,10 +19781,10 @@
       </c>
       <c r="O393">
         <f t="shared" ca="1" si="6"/>
-        <v>44.739599276114831</v>
-      </c>
-    </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.45">
+        <v>65.84499658540858</v>
+      </c>
+    </row>
+    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>14</v>
       </c>
@@ -19828,10 +19829,10 @@
       </c>
       <c r="O394">
         <f t="shared" ca="1" si="6"/>
-        <v>78.640192926960779</v>
-      </c>
-    </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.45">
+        <v>77.033382579975139</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>15</v>
       </c>
@@ -19876,10 +19877,10 @@
       </c>
       <c r="O395">
         <f t="shared" ca="1" si="6"/>
-        <v>61.919849081905191</v>
-      </c>
-    </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.45">
+        <v>69.161960668750879</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>16</v>
       </c>
@@ -19924,10 +19925,10 @@
       </c>
       <c r="O396">
         <f t="shared" ca="1" si="6"/>
-        <v>43.986756687739444</v>
-      </c>
-    </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.45">
+        <v>46.548588464029969</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>17</v>
       </c>
@@ -19972,10 +19973,10 @@
       </c>
       <c r="O397">
         <f t="shared" ca="1" si="6"/>
-        <v>44.504241665943518</v>
-      </c>
-    </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.45">
+        <v>56.302149595720586</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>18</v>
       </c>
@@ -20020,10 +20021,10 @@
       </c>
       <c r="O398">
         <f t="shared" ca="1" si="6"/>
-        <v>77.448863708904071</v>
-      </c>
-    </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.45">
+        <v>56.987810826589673</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>19</v>
       </c>
@@ -20068,10 +20069,10 @@
       </c>
       <c r="O399">
         <f t="shared" ca="1" si="6"/>
-        <v>43.93709808397216</v>
-      </c>
-    </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.45">
+        <v>41.840146291225267</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>20</v>
       </c>
@@ -20116,10 +20117,10 @@
       </c>
       <c r="O400">
         <f t="shared" ca="1" si="6"/>
-        <v>51.032202986032203</v>
-      </c>
-    </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.45">
+        <v>31.886048602634837</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>0</v>
       </c>
@@ -20164,10 +20165,10 @@
       </c>
       <c r="O401">
         <f t="shared" ca="1" si="6"/>
-        <v>26.758716481544489</v>
-      </c>
-    </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.45">
+        <v>54.625584033235775</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>1</v>
       </c>
@@ -20212,10 +20213,10 @@
       </c>
       <c r="O402">
         <f t="shared" ca="1" si="6"/>
-        <v>34.556695221907304</v>
-      </c>
-    </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.45">
+        <v>51.451498640300386</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>2</v>
       </c>
@@ -20260,10 +20261,10 @@
       </c>
       <c r="O403">
         <f t="shared" ca="1" si="6"/>
-        <v>79.679252745486096</v>
-      </c>
-    </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.45">
+        <v>37.400461744695676</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>3</v>
       </c>
@@ -20308,10 +20309,10 @@
       </c>
       <c r="O404">
         <f t="shared" ca="1" si="6"/>
-        <v>39.676098731984297</v>
-      </c>
-    </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.45">
+        <v>60.741837635684995</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>4</v>
       </c>
@@ -20356,10 +20357,10 @@
       </c>
       <c r="O405">
         <f t="shared" ca="1" si="6"/>
-        <v>61.018111671082941</v>
-      </c>
-    </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.45">
+        <v>50.946479413064154</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>5</v>
       </c>
@@ -20404,10 +20405,10 @@
       </c>
       <c r="O406">
         <f t="shared" ca="1" si="6"/>
-        <v>49.048894945513254</v>
-      </c>
-    </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.45">
+        <v>17.764155029911262</v>
+      </c>
+    </row>
+    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>6</v>
       </c>
@@ -20452,10 +20453,10 @@
       </c>
       <c r="O407">
         <f t="shared" ca="1" si="6"/>
-        <v>28.867172905331611</v>
-      </c>
-    </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.45">
+        <v>45.40711981234363</v>
+      </c>
+    </row>
+    <row r="408" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>7</v>
       </c>
@@ -20500,10 +20501,10 @@
       </c>
       <c r="O408">
         <f t="shared" ca="1" si="6"/>
-        <v>74.996733586855754</v>
-      </c>
-    </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.45">
+        <v>62.452702433349806</v>
+      </c>
+    </row>
+    <row r="409" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>8</v>
       </c>
@@ -20548,10 +20549,10 @@
       </c>
       <c r="O409">
         <f t="shared" ca="1" si="6"/>
-        <v>31.573477289037342</v>
-      </c>
-    </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.45">
+        <v>35.05231052758046</v>
+      </c>
+    </row>
+    <row r="410" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>9</v>
       </c>
@@ -20596,10 +20597,10 @@
       </c>
       <c r="O410">
         <f t="shared" ca="1" si="6"/>
-        <v>13.186121661588494</v>
-      </c>
-    </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.45">
+        <v>51.784231292562581</v>
+      </c>
+    </row>
+    <row r="411" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>10</v>
       </c>
@@ -20644,10 +20645,10 @@
       </c>
       <c r="O411">
         <f t="shared" ca="1" si="6"/>
-        <v>15.874046328384932</v>
-      </c>
-    </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.45">
+        <v>64.149578758606054</v>
+      </c>
+    </row>
+    <row r="412" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>11</v>
       </c>
@@ -20692,10 +20693,10 @@
       </c>
       <c r="O412">
         <f t="shared" ca="1" si="6"/>
-        <v>51.411652771520586</v>
-      </c>
-    </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.45">
+        <v>78.491065721965057</v>
+      </c>
+    </row>
+    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>12</v>
       </c>
@@ -20740,10 +20741,10 @@
       </c>
       <c r="O413">
         <f t="shared" ca="1" si="6"/>
-        <v>24.599059026457333</v>
-      </c>
-    </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.45">
+        <v>21.334603297507265</v>
+      </c>
+    </row>
+    <row r="414" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>13</v>
       </c>
@@ -20788,10 +20789,10 @@
       </c>
       <c r="O414">
         <f t="shared" ca="1" si="6"/>
-        <v>56.562214818183719</v>
-      </c>
-    </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.45">
+        <v>28.602484040632024</v>
+      </c>
+    </row>
+    <row r="415" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>14</v>
       </c>
@@ -20836,10 +20837,10 @@
       </c>
       <c r="O415">
         <f t="shared" ca="1" si="6"/>
-        <v>57.721846516701092</v>
-      </c>
-    </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.45">
+        <v>42.409153282648042</v>
+      </c>
+    </row>
+    <row r="416" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>15</v>
       </c>
@@ -20884,10 +20885,10 @@
       </c>
       <c r="O416">
         <f t="shared" ca="1" si="6"/>
-        <v>30.372344181629924</v>
-      </c>
-    </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.45">
+        <v>25.573129396766873</v>
+      </c>
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>16</v>
       </c>
@@ -20932,10 +20933,10 @@
       </c>
       <c r="O417">
         <f t="shared" ca="1" si="6"/>
-        <v>74.924394125011901</v>
-      </c>
-    </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.45">
+        <v>49.370964279491531</v>
+      </c>
+    </row>
+    <row r="418" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>17</v>
       </c>
@@ -20980,10 +20981,10 @@
       </c>
       <c r="O418">
         <f t="shared" ca="1" si="6"/>
-        <v>10.663047282814803</v>
-      </c>
-    </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.45">
+        <v>22.142798888616809</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>18</v>
       </c>
@@ -21028,10 +21029,10 @@
       </c>
       <c r="O419">
         <f t="shared" ca="1" si="6"/>
-        <v>61.558633850788141</v>
-      </c>
-    </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.45">
+        <v>78.597069592187765</v>
+      </c>
+    </row>
+    <row r="420" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>19</v>
       </c>
@@ -21076,10 +21077,10 @@
       </c>
       <c r="O420">
         <f t="shared" ca="1" si="6"/>
-        <v>40.832358136428333</v>
-      </c>
-    </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40.59546809066515</v>
+      </c>
+    </row>
+    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>20</v>
       </c>
@@ -21124,10 +21125,10 @@
       </c>
       <c r="O421">
         <f t="shared" ca="1" si="6"/>
-        <v>18.503477703766837</v>
-      </c>
-    </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.45">
+        <v>50.246766585811692</v>
+      </c>
+    </row>
+    <row r="422" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>0</v>
       </c>
@@ -21172,10 +21173,10 @@
       </c>
       <c r="O422">
         <f t="shared" ca="1" si="6"/>
-        <v>32.001190887145775</v>
-      </c>
-    </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.45">
+        <v>22.278199298402999</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>1</v>
       </c>
@@ -21220,10 +21221,10 @@
       </c>
       <c r="O423">
         <f t="shared" ca="1" si="6"/>
-        <v>79.329454913363733</v>
-      </c>
-    </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.45">
+        <v>69.467016885908436</v>
+      </c>
+    </row>
+    <row r="424" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>2</v>
       </c>
@@ -21268,10 +21269,10 @@
       </c>
       <c r="O424">
         <f t="shared" ca="1" si="6"/>
-        <v>43.252406751549344</v>
-      </c>
-    </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.45">
+        <v>23.195192309679708</v>
+      </c>
+    </row>
+    <row r="425" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>3</v>
       </c>
@@ -21316,10 +21317,10 @@
       </c>
       <c r="O425">
         <f t="shared" ca="1" si="6"/>
-        <v>68.948054580596946</v>
-      </c>
-    </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.45">
+        <v>22.301820400415178</v>
+      </c>
+    </row>
+    <row r="426" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>4</v>
       </c>
@@ -21364,10 +21365,10 @@
       </c>
       <c r="O426">
         <f t="shared" ca="1" si="6"/>
-        <v>39.382899901777961</v>
-      </c>
-    </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.45">
+        <v>76.376837329888573</v>
+      </c>
+    </row>
+    <row r="427" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>5</v>
       </c>
@@ -21412,10 +21413,10 @@
       </c>
       <c r="O427">
         <f t="shared" ca="1" si="6"/>
-        <v>68.005085371861696</v>
-      </c>
-    </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.45">
+        <v>70.963446820158225</v>
+      </c>
+    </row>
+    <row r="428" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>6</v>
       </c>
@@ -21460,10 +21461,10 @@
       </c>
       <c r="O428">
         <f t="shared" ca="1" si="6"/>
-        <v>16.770961967436104</v>
-      </c>
-    </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.45">
+        <v>77.528438762500102</v>
+      </c>
+    </row>
+    <row r="429" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>7</v>
       </c>
@@ -21508,10 +21509,10 @@
       </c>
       <c r="O429">
         <f t="shared" ca="1" si="6"/>
-        <v>58.317094000135427</v>
-      </c>
-    </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.45">
+        <v>58.230739015494578</v>
+      </c>
+    </row>
+    <row r="430" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>8</v>
       </c>
@@ -21556,10 +21557,10 @@
       </c>
       <c r="O430">
         <f t="shared" ca="1" si="6"/>
-        <v>50.85740046467366</v>
-      </c>
-    </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.45">
+        <v>28.878242505779617</v>
+      </c>
+    </row>
+    <row r="431" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>9</v>
       </c>
@@ -21604,10 +21605,10 @@
       </c>
       <c r="O431">
         <f t="shared" ca="1" si="6"/>
-        <v>63.807207785409354</v>
-      </c>
-    </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.45">
+        <v>63.160466820155762</v>
+      </c>
+    </row>
+    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>10</v>
       </c>
@@ -21652,10 +21653,10 @@
       </c>
       <c r="O432">
         <f t="shared" ca="1" si="6"/>
-        <v>12.205174970245078</v>
-      </c>
-    </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.45">
+        <v>33.920685512801541</v>
+      </c>
+    </row>
+    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>11</v>
       </c>
@@ -21700,10 +21701,10 @@
       </c>
       <c r="O433">
         <f t="shared" ca="1" si="6"/>
-        <v>41.040712126135048</v>
-      </c>
-    </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.45">
+        <v>30.823216293036278</v>
+      </c>
+    </row>
+    <row r="434" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>12</v>
       </c>
@@ -21748,10 +21749,10 @@
       </c>
       <c r="O434">
         <f t="shared" ca="1" si="6"/>
-        <v>28.932822282416801</v>
-      </c>
-    </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.45">
+        <v>15.743622184201802</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>13</v>
       </c>
@@ -21796,10 +21797,10 @@
       </c>
       <c r="O435">
         <f t="shared" ca="1" si="6"/>
-        <v>67.486729844821511</v>
-      </c>
-    </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40.148546595639331</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>14</v>
       </c>
@@ -21844,10 +21845,10 @@
       </c>
       <c r="O436">
         <f t="shared" ca="1" si="6"/>
-        <v>59.364644784191242</v>
-      </c>
-    </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.45">
+        <v>41.360543562697941</v>
+      </c>
+    </row>
+    <row r="437" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>15</v>
       </c>
@@ -21892,10 +21893,10 @@
       </c>
       <c r="O437">
         <f t="shared" ca="1" si="6"/>
-        <v>48.074604679523958</v>
-      </c>
-    </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.45">
+        <v>61.302530293763368</v>
+      </c>
+    </row>
+    <row r="438" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>16</v>
       </c>
@@ -21940,10 +21941,10 @@
       </c>
       <c r="O438">
         <f t="shared" ca="1" si="6"/>
-        <v>71.285938564467671</v>
-      </c>
-    </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.45">
+        <v>55.383809182913033</v>
+      </c>
+    </row>
+    <row r="439" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>17</v>
       </c>
@@ -21988,10 +21989,10 @@
       </c>
       <c r="O439">
         <f t="shared" ca="1" si="6"/>
-        <v>29.304640267998554</v>
-      </c>
-    </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.45">
+        <v>64.398191462841112</v>
+      </c>
+    </row>
+    <row r="440" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>18</v>
       </c>
@@ -22036,10 +22037,10 @@
       </c>
       <c r="O440">
         <f t="shared" ca="1" si="6"/>
-        <v>75.439562180209677</v>
-      </c>
-    </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.45">
+        <v>56.585173912241594</v>
+      </c>
+    </row>
+    <row r="441" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>19</v>
       </c>
@@ -22084,10 +22085,10 @@
       </c>
       <c r="O441">
         <f t="shared" ca="1" si="6"/>
-        <v>75.377251169883948</v>
-      </c>
-    </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.45">
+        <v>29.276885819620659</v>
+      </c>
+    </row>
+    <row r="442" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>20</v>
       </c>
@@ -22132,7 +22133,7 @@
       </c>
       <c r="O442">
         <f t="shared" ca="1" si="6"/>
-        <v>45.923538787078478</v>
+        <v>68.685188171452623</v>
       </c>
     </row>
   </sheetData>
